--- a/Excel-XLSX/UN-UZB.xlsx
+++ b/Excel-XLSX/UN-UZB.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="256">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>8reRCE</t>
+    <t>a7CNoG</t>
   </si>
   <si>
     <t>1993</t>
@@ -117,7 +117,7 @@
     <t>0</t>
   </si>
   <si>
-    <t>null</t>
+    <t>-</t>
   </si>
   <si>
     <t>1994</t>
@@ -138,6 +138,459 @@
     <t>4</t>
   </si>
   <si>
+    <t>1996</t>
+  </si>
+  <si>
+    <t>2823</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>1997</t>
+  </si>
+  <si>
+    <t>3075</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>1998</t>
+  </si>
+  <si>
+    <t>1061</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>1999</t>
+  </si>
+  <si>
+    <t>1002</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>8348</t>
+  </si>
+  <si>
+    <t>1235</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>9569</t>
+  </si>
+  <si>
+    <t>1316</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>5716</t>
+  </si>
+  <si>
+    <t>1060</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>5470</t>
+  </si>
+  <si>
+    <t>928</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>5238</t>
+  </si>
+  <si>
+    <t>426</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>4740</t>
+  </si>
+  <si>
+    <t>534</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>1415</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>1047</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>809</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>546</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>304</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>173</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>13032</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>13026</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>13025</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>Armenia</t>
+  </si>
+  <si>
+    <t>ARM</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+  </si>
+  <si>
+    <t>AZE</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>ETH</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>Palestinian</t>
+  </si>
+  <si>
+    <t>GAZ</t>
+  </si>
+  <si>
+    <t>PSE</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>GEO</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>Iran (Islamic Rep. of)</t>
+  </si>
+  <si>
+    <t>IRN</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>IRQ</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>Kyrgyzstan</t>
+  </si>
+  <si>
+    <t>KGZ</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>Rep. of Korea</t>
+  </si>
+  <si>
+    <t>KOR</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>Dem. People's Rep. of Korea</t>
+  </si>
+  <si>
+    <t>KRN</t>
+  </si>
+  <si>
+    <t>PRK</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
     <t>147</t>
   </si>
   <si>
@@ -147,7 +600,7 @@
     <t>PAK</t>
   </si>
   <si>
-    <t>5</t>
+    <t>70</t>
   </si>
   <si>
     <t>160</t>
@@ -159,10 +612,52 @@
     <t>RUS</t>
   </si>
   <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>6</t>
+    <t>72</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
+    <t>Serbia and Kosovo: S/RES/1244 (1999)</t>
+  </si>
+  <si>
+    <t>SRB</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>Syrian Arab Rep.</t>
+  </si>
+  <si>
+    <t>SYR</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>81</t>
   </si>
   <si>
     <t>189</t>
@@ -174,196 +669,49 @@
     <t>TJK</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>1996</t>
-  </si>
-  <si>
-    <t>2823</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>Armenia</t>
-  </si>
-  <si>
-    <t>ARM</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>GEO</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>Iraq</t>
-  </si>
-  <si>
-    <t>IRQ</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>Dem. People's Rep. of Korea</t>
-  </si>
-  <si>
-    <t>KRN</t>
-  </si>
-  <si>
-    <t>PRK</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>1997</t>
-  </si>
-  <si>
-    <t>3075</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>Rep. of Korea</t>
-  </si>
-  <si>
-    <t>KOR</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>1998</t>
-  </si>
-  <si>
-    <t>1061</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>1999</t>
-  </si>
-  <si>
-    <t>1002</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>Azerbaijan</t>
-  </si>
-  <si>
-    <t>AZE</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>164</t>
-  </si>
-  <si>
-    <t>Serbia and Kosovo: S/RES/1244 (1999)</t>
-  </si>
-  <si>
-    <t>SRB</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>8348</t>
-  </si>
-  <si>
-    <t>1235</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>31</t>
+    <t>82</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>85</t>
   </si>
   <si>
     <t>30001</t>
   </si>
   <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>9569</t>
-  </si>
-  <si>
-    <t>1316</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>36</t>
+    <t>86</t>
+  </si>
+  <si>
+    <t>30000</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>39202</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>Turkmenistan</t>
+  </si>
+  <si>
+    <t>TKM</t>
   </si>
   <si>
     <t>216</t>
@@ -378,397 +726,64 @@
     <t>XXA</t>
   </si>
   <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>30000</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>5716</t>
-  </si>
-  <si>
-    <t>1060</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>Iran (Islamic Rep. of)</t>
-  </si>
-  <si>
-    <t>IRN</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>39202</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>5470</t>
-  </si>
-  <si>
-    <t>928</t>
-  </si>
-  <si>
-    <t>117</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>Ethiopia</t>
-  </si>
-  <si>
-    <t>ETH</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>Kyrgyzstan</t>
-  </si>
-  <si>
-    <t>KGZ</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>5238</t>
-  </si>
-  <si>
-    <t>426</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>185</t>
-  </si>
-  <si>
-    <t>Syrian Arab Rep.</t>
-  </si>
-  <si>
-    <t>SYR</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>190</t>
-  </si>
-  <si>
-    <t>Turkmenistan</t>
-  </si>
-  <si>
-    <t>TKM</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>4740</t>
-  </si>
-  <si>
-    <t>534</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>Palestinian</t>
-  </si>
-  <si>
-    <t>GAZ</t>
-  </si>
-  <si>
-    <t>PSE</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>1415</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>1047</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>809</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>546</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>304</t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>211</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>173</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>138</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>90</t>
+    <t>94</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>99</t>
   </si>
   <si>
     <t>86703</t>
   </si>
   <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>94</t>
+    <t>101</t>
   </si>
   <si>
     <t>86524</t>
   </si>
   <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
     <t>85555</t>
   </si>
   <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
     <t>79942</t>
   </si>
   <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>2019</t>
+    <t>104</t>
   </si>
   <si>
     <t>97346</t>
   </si>
   <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>2020</t>
+    <t>105</t>
   </si>
   <si>
     <t>69791</t>
   </si>
   <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>13032</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
     <t>37993</t>
   </si>
   <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>2022</t>
-  </si>
-  <si>
-    <t>13031</t>
-  </si>
-  <si>
-    <t>31829</t>
+    <t>107</t>
+  </si>
+  <si>
+    <t>27389</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>25413</t>
   </si>
 </sst>
 </file>
@@ -1153,7 +1168,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V107"/>
+  <dimension ref="A1:V109"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -1293,8 +1308,8 @@
       <c r="U2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V2" s="2" t="s">
-        <v>32</v>
+      <c r="V2" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -1361,8 +1376,8 @@
       <c r="U3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V3" s="2" t="s">
-        <v>32</v>
+      <c r="V3" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="4">
@@ -1429,8 +1444,8 @@
       <c r="U4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V4" s="2" t="s">
-        <v>32</v>
+      <c r="V4" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="5">
@@ -1447,40 +1462,40 @@
         <v>39</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="O5" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="Q5" s="2" t="s">
         <v>32</v>
@@ -1497,8 +1512,8 @@
       <c r="U5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V5" s="2" t="s">
-        <v>32</v>
+      <c r="V5" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="6">
@@ -1512,38 +1527,38 @@
         <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="F6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="O6" s="2" t="s">
         <v>32</v>
       </c>
@@ -1565,8 +1580,8 @@
       <c r="U6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V6" s="2" t="s">
-        <v>32</v>
+      <c r="V6" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="7">
@@ -1580,22 +1595,22 @@
         <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>28</v>
@@ -1610,7 +1625,7 @@
         <v>30</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>32</v>
@@ -1633,8 +1648,8 @@
       <c r="U7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V7" s="2" t="s">
-        <v>32</v>
+      <c r="V7" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="8">
@@ -1648,10 +1663,10 @@
         <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>25</v>
@@ -1678,13 +1693,13 @@
         <v>30</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="O8" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="Q8" s="2" t="s">
         <v>32</v>
@@ -1701,8 +1716,8 @@
       <c r="U8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V8" s="2" t="s">
-        <v>32</v>
+      <c r="V8" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="9">
@@ -1716,40 +1731,40 @@
         <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N9" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="O9" s="2" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="P9" s="2" t="s">
         <v>32</v>
@@ -1769,8 +1784,8 @@
       <c r="U9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V9" s="2" t="s">
-        <v>32</v>
+      <c r="V9" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="10">
@@ -1784,22 +1799,22 @@
         <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>28</v>
@@ -1814,10 +1829,10 @@
         <v>30</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="P10" s="2" t="s">
         <v>32</v>
@@ -1837,8 +1852,8 @@
       <c r="U10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V10" s="2" t="s">
-        <v>32</v>
+      <c r="V10" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="11">
@@ -1852,44 +1867,44 @@
         <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="P11" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="Q11" s="2" t="s">
         <v>32</v>
       </c>
@@ -1905,8 +1920,8 @@
       <c r="U11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V11" s="2" t="s">
-        <v>32</v>
+      <c r="V11" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="12">
@@ -1920,44 +1935,44 @@
         <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N12" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" s="2" t="s">
+      <c r="O12" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="P12" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="Q12" s="2" t="s">
         <v>32</v>
       </c>
@@ -1973,8 +1988,8 @@
       <c r="U12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V12" s="2" t="s">
-        <v>32</v>
+      <c r="V12" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="13">
@@ -1988,43 +2003,43 @@
         <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N13" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="O13" s="2" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="Q13" s="2" t="s">
         <v>32</v>
@@ -2041,8 +2056,8 @@
       <c r="U13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V13" s="2" t="s">
-        <v>32</v>
+      <c r="V13" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="14">
@@ -2056,22 +2071,22 @@
         <v>22</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>28</v>
@@ -2086,10 +2101,10 @@
         <v>30</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="P14" s="2" t="s">
         <v>32</v>
@@ -2109,8 +2124,8 @@
       <c r="U14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V14" s="2" t="s">
-        <v>32</v>
+      <c r="V14" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="15">
@@ -2124,22 +2139,22 @@
         <v>22</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>28</v>
@@ -2154,7 +2169,7 @@
         <v>30</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="O15" s="2" t="s">
         <v>32</v>
@@ -2177,8 +2192,8 @@
       <c r="U15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V15" s="2" t="s">
-        <v>32</v>
+      <c r="V15" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="16">
@@ -2192,10 +2207,10 @@
         <v>22</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>25</v>
@@ -2222,7 +2237,7 @@
         <v>30</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="O16" s="2" t="s">
         <v>32</v>
@@ -2245,8 +2260,8 @@
       <c r="U16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V16" s="2" t="s">
-        <v>32</v>
+      <c r="V16" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="17">
@@ -2260,22 +2275,22 @@
         <v>22</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>28</v>
@@ -2290,13 +2305,13 @@
         <v>30</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="O17" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="Q17" s="2" t="s">
         <v>32</v>
@@ -2313,8 +2328,8 @@
       <c r="U17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V17" s="2" t="s">
-        <v>32</v>
+      <c r="V17" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="18">
@@ -2328,22 +2343,22 @@
         <v>22</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>28</v>
@@ -2358,7 +2373,7 @@
         <v>30</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="O18" s="2" t="s">
         <v>32</v>
@@ -2381,8 +2396,8 @@
       <c r="U18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V18" s="2" t="s">
-        <v>32</v>
+      <c r="V18" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="19">
@@ -2396,22 +2411,22 @@
         <v>22</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>28</v>
@@ -2426,7 +2441,7 @@
         <v>30</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="O19" s="2" t="s">
         <v>32</v>
@@ -2449,8 +2464,8 @@
       <c r="U19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V19" s="2" t="s">
-        <v>32</v>
+      <c r="V19" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="20">
@@ -2464,22 +2479,22 @@
         <v>22</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>83</v>
+        <v>27</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>83</v>
+        <v>27</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>28</v>
@@ -2494,7 +2509,7 @@
         <v>30</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="O20" s="2" t="s">
         <v>32</v>
@@ -2517,8 +2532,8 @@
       <c r="U20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V20" s="2" t="s">
-        <v>32</v>
+      <c r="V20" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="21">
@@ -2532,22 +2547,22 @@
         <v>22</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>28</v>
@@ -2562,7 +2577,7 @@
         <v>30</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="O21" s="2" t="s">
         <v>32</v>
@@ -2585,8 +2600,8 @@
       <c r="U21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V21" s="2" t="s">
-        <v>32</v>
+      <c r="V21" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="22">
@@ -2600,22 +2615,22 @@
         <v>22</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>28</v>
@@ -2630,7 +2645,7 @@
         <v>30</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="O22" s="2" t="s">
         <v>32</v>
@@ -2653,8 +2668,8 @@
       <c r="U22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V22" s="2" t="s">
-        <v>32</v>
+      <c r="V22" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="23">
@@ -2668,22 +2683,22 @@
         <v>22</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>28</v>
@@ -2698,7 +2713,7 @@
         <v>30</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="O23" s="2" t="s">
         <v>32</v>
@@ -2721,8 +2736,8 @@
       <c r="U23" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V23" s="2" t="s">
-        <v>32</v>
+      <c r="V23" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="24">
@@ -2736,10 +2751,10 @@
         <v>22</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>25</v>
@@ -2766,7 +2781,7 @@
         <v>30</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="O24" s="2" t="s">
         <v>32</v>
@@ -2789,8 +2804,8 @@
       <c r="U24" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V24" s="2" t="s">
-        <v>32</v>
+      <c r="V24" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="25">
@@ -2804,22 +2819,22 @@
         <v>22</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>28</v>
@@ -2834,13 +2849,13 @@
         <v>30</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>59</v>
+        <v>110</v>
       </c>
       <c r="O25" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="Q25" s="2" t="s">
         <v>32</v>
@@ -2857,8 +2872,8 @@
       <c r="U25" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V25" s="2" t="s">
-        <v>32</v>
+      <c r="V25" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="26">
@@ -2872,10 +2887,10 @@
         <v>22</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>25</v>
@@ -2902,7 +2917,7 @@
         <v>30</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="O26" s="2" t="s">
         <v>32</v>
@@ -2925,8 +2940,8 @@
       <c r="U26" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V26" s="2" t="s">
-        <v>32</v>
+      <c r="V26" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="27">
@@ -2940,22 +2955,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>28</v>
@@ -2970,7 +2985,7 @@
         <v>30</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="O27" s="2" t="s">
         <v>32</v>
@@ -2993,8 +3008,8 @@
       <c r="U27" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V27" s="2" t="s">
-        <v>32</v>
+      <c r="V27" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="28">
@@ -3008,22 +3023,22 @@
         <v>22</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>28</v>
@@ -3038,7 +3053,7 @@
         <v>30</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="O28" s="2" t="s">
         <v>32</v>
@@ -3061,8 +3076,8 @@
       <c r="U28" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V28" s="2" t="s">
-        <v>32</v>
+      <c r="V28" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="29">
@@ -3076,22 +3091,22 @@
         <v>22</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>98</v>
+        <v>25</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>99</v>
+        <v>26</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>28</v>
@@ -3106,13 +3121,13 @@
         <v>30</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="O29" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="Q29" s="2" t="s">
         <v>32</v>
@@ -3129,8 +3144,8 @@
       <c r="U29" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V29" s="2" t="s">
-        <v>32</v>
+      <c r="V29" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="30">
@@ -3144,10 +3159,10 @@
         <v>22</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>25</v>
@@ -3174,10 +3189,10 @@
         <v>30</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>104</v>
+        <v>32</v>
       </c>
       <c r="P30" s="2" t="s">
         <v>32</v>
@@ -3197,8 +3212,8 @@
       <c r="U30" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V30" s="2" t="s">
-        <v>32</v>
+      <c r="V30" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="31">
@@ -3212,22 +3227,22 @@
         <v>22</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>28</v>
@@ -3242,10 +3257,10 @@
         <v>30</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>32</v>
+        <v>123</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="P31" s="2" t="s">
         <v>32</v>
@@ -3280,22 +3295,22 @@
         <v>22</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>28</v>
@@ -3310,7 +3325,7 @@
         <v>30</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="O32" s="2" t="s">
         <v>32</v>
@@ -3348,22 +3363,22 @@
         <v>22</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>109</v>
+        <v>40</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>26</v>
+        <v>128</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>27</v>
+        <v>129</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>27</v>
+        <v>129</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>28</v>
@@ -3378,10 +3393,10 @@
         <v>30</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>111</v>
+        <v>32</v>
       </c>
       <c r="P33" s="2" t="s">
         <v>32</v>
@@ -3401,8 +3416,8 @@
       <c r="U33" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V33" s="2" t="s">
-        <v>32</v>
+      <c r="V33" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="34">
@@ -3416,22 +3431,22 @@
         <v>22</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>109</v>
+        <v>43</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>96</v>
+        <v>129</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>96</v>
+        <v>129</v>
       </c>
       <c r="J34" s="2" t="s">
         <v>28</v>
@@ -3446,10 +3461,10 @@
         <v>30</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="P34" s="2" t="s">
         <v>32</v>
@@ -3469,8 +3484,8 @@
       <c r="U34" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V34" s="2" t="s">
-        <v>32</v>
+      <c r="V34" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="35">
@@ -3484,22 +3499,22 @@
         <v>22</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>65</v>
+        <v>129</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>65</v>
+        <v>129</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>28</v>
@@ -3514,10 +3529,10 @@
         <v>30</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="P35" s="2" t="s">
         <v>32</v>
@@ -3537,8 +3552,8 @@
       <c r="U35" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V35" s="2" t="s">
-        <v>32</v>
+      <c r="V35" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="36">
@@ -3552,22 +3567,22 @@
         <v>22</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>109</v>
+        <v>49</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="J36" s="2" t="s">
         <v>28</v>
@@ -3582,7 +3597,7 @@
         <v>30</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O36" s="2" t="s">
         <v>32</v>
@@ -3605,8 +3620,8 @@
       <c r="U36" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V36" s="2" t="s">
-        <v>32</v>
+      <c r="V36" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="37">
@@ -3620,22 +3635,22 @@
         <v>22</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>109</v>
+        <v>52</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>28</v>
@@ -3653,7 +3668,7 @@
         <v>32</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="P37" s="2" t="s">
         <v>32</v>
@@ -3673,8 +3688,8 @@
       <c r="U37" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V37" s="2" t="s">
-        <v>32</v>
+      <c r="V37" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="38">
@@ -3688,22 +3703,22 @@
         <v>22</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>109</v>
+        <v>56</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>50</v>
+        <v>133</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>51</v>
+        <v>134</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>51</v>
+        <v>134</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>28</v>
@@ -3718,10 +3733,10 @@
         <v>30</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>121</v>
+        <v>32</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="P38" s="2" t="s">
         <v>32</v>
@@ -3741,8 +3756,8 @@
       <c r="U38" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V38" s="2" t="s">
-        <v>32</v>
+      <c r="V38" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="39">
@@ -3756,22 +3771,22 @@
         <v>22</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>123</v>
+        <v>60</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>26</v>
+        <v>133</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="J39" s="2" t="s">
         <v>28</v>
@@ -3786,13 +3801,13 @@
         <v>30</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>124</v>
+        <v>42</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>125</v>
+        <v>42</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>126</v>
+        <v>32</v>
       </c>
       <c r="Q39" s="2" t="s">
         <v>32</v>
@@ -3809,8 +3824,8 @@
       <c r="U39" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V39" s="2" t="s">
-        <v>32</v>
+      <c r="V39" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="40">
@@ -3824,22 +3839,22 @@
         <v>22</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>123</v>
+        <v>65</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>95</v>
+        <v>133</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>96</v>
+        <v>134</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>96</v>
+        <v>134</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>28</v>
@@ -3854,10 +3869,10 @@
         <v>30</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P40" s="2" t="s">
         <v>32</v>
@@ -3877,8 +3892,8 @@
       <c r="U40" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V40" s="2" t="s">
-        <v>32</v>
+      <c r="V40" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="41">
@@ -3892,22 +3907,22 @@
         <v>22</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>129</v>
+        <v>74</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>28</v>
@@ -3922,10 +3937,10 @@
         <v>30</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P41" s="2" t="s">
         <v>32</v>
@@ -3945,8 +3960,8 @@
       <c r="U41" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V41" s="2" t="s">
-        <v>32</v>
+      <c r="V41" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="42">
@@ -3960,22 +3975,22 @@
         <v>22</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>123</v>
+        <v>75</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>64</v>
+        <v>133</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>65</v>
+        <v>134</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>65</v>
+        <v>134</v>
       </c>
       <c r="J42" s="2" t="s">
         <v>28</v>
@@ -3990,7 +4005,7 @@
         <v>30</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="O42" s="2" t="s">
         <v>32</v>
@@ -4013,8 +4028,8 @@
       <c r="U42" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V42" s="2" t="s">
-        <v>32</v>
+      <c r="V42" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="43">
@@ -4028,22 +4043,22 @@
         <v>22</v>
       </c>
       <c r="D43" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G43" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E43" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="H43" s="1" t="s">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="J43" s="2" t="s">
         <v>28</v>
@@ -4058,7 +4073,7 @@
         <v>30</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O43" s="2" t="s">
         <v>32</v>
@@ -4081,8 +4096,8 @@
       <c r="U43" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V43" s="2" t="s">
-        <v>32</v>
+      <c r="V43" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="44">
@@ -4096,22 +4111,22 @@
         <v>22</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H44" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="I44" s="1" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="J44" s="2" t="s">
         <v>28</v>
@@ -4126,10 +4141,10 @@
         <v>30</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="P44" s="2" t="s">
         <v>32</v>
@@ -4149,8 +4164,8 @@
       <c r="U44" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V44" s="2" t="s">
-        <v>32</v>
+      <c r="V44" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="45">
@@ -4164,22 +4179,22 @@
         <v>22</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>50</v>
+        <v>133</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>51</v>
+        <v>134</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>51</v>
+        <v>134</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>28</v>
@@ -4194,7 +4209,7 @@
         <v>30</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>136</v>
+        <v>42</v>
       </c>
       <c r="O45" s="2" t="s">
         <v>32</v>
@@ -4217,8 +4232,8 @@
       <c r="U45" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V45" s="2" t="s">
-        <v>32</v>
+      <c r="V45" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="46">
@@ -4232,22 +4247,22 @@
         <v>22</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>138</v>
+        <v>95</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>26</v>
+        <v>133</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="J46" s="2" t="s">
         <v>28</v>
@@ -4262,13 +4277,13 @@
         <v>30</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>139</v>
+        <v>42</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>140</v>
+        <v>32</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>141</v>
+        <v>32</v>
       </c>
       <c r="Q46" s="2" t="s">
         <v>32</v>
@@ -4285,8 +4300,8 @@
       <c r="U46" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V46" s="2" t="s">
-        <v>32</v>
+      <c r="V46" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="47">
@@ -4300,22 +4315,22 @@
         <v>22</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>138</v>
+        <v>98</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>95</v>
+        <v>133</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>96</v>
+        <v>134</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>96</v>
+        <v>134</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>28</v>
@@ -4330,10 +4345,10 @@
         <v>30</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="P47" s="2" t="s">
         <v>32</v>
@@ -4353,8 +4368,8 @@
       <c r="U47" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V47" s="2" t="s">
-        <v>32</v>
+      <c r="V47" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="48">
@@ -4368,22 +4383,22 @@
         <v>22</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>138</v>
+        <v>100</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="J48" s="2" t="s">
         <v>28</v>
@@ -4398,7 +4413,7 @@
         <v>30</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O48" s="2" t="s">
         <v>32</v>
@@ -4421,8 +4436,8 @@
       <c r="U48" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V48" s="2" t="s">
-        <v>32</v>
+      <c r="V48" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="49">
@@ -4436,22 +4451,22 @@
         <v>22</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>138</v>
+        <v>65</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>129</v>
+        <v>38</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="J49" s="2" t="s">
         <v>28</v>
@@ -4466,10 +4481,10 @@
         <v>30</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="P49" s="2" t="s">
         <v>32</v>
@@ -4489,8 +4504,8 @@
       <c r="U49" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V49" s="2" t="s">
-        <v>32</v>
+      <c r="V49" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="50">
@@ -4504,22 +4519,22 @@
         <v>22</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>138</v>
+        <v>75</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>64</v>
+        <v>151</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>65</v>
+        <v>152</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>65</v>
+        <v>153</v>
       </c>
       <c r="J50" s="2" t="s">
         <v>28</v>
@@ -4537,7 +4552,7 @@
         <v>32</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P50" s="2" t="s">
         <v>32</v>
@@ -4557,8 +4572,8 @@
       <c r="U50" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V50" s="2" t="s">
-        <v>32</v>
+      <c r="V50" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="51">
@@ -4572,22 +4587,22 @@
         <v>22</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>138</v>
+        <v>40</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="J51" s="2" t="s">
         <v>28</v>
@@ -4602,10 +4617,10 @@
         <v>30</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="P51" s="2" t="s">
         <v>32</v>
@@ -4625,8 +4640,8 @@
       <c r="U51" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V51" s="2" t="s">
-        <v>32</v>
+      <c r="V51" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="52">
@@ -4640,22 +4655,22 @@
         <v>22</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>49</v>
+        <v>155</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>50</v>
+        <v>156</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>51</v>
+        <v>157</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>51</v>
+        <v>157</v>
       </c>
       <c r="J52" s="2" t="s">
         <v>28</v>
@@ -4670,10 +4685,10 @@
         <v>30</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>136</v>
+        <v>48</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="P52" s="2" t="s">
         <v>32</v>
@@ -4693,8 +4708,8 @@
       <c r="U52" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V52" s="2" t="s">
-        <v>32</v>
+      <c r="V52" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="53">
@@ -4708,22 +4723,22 @@
         <v>22</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>154</v>
+        <v>60</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>25</v>
+        <v>160</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>26</v>
+        <v>161</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>27</v>
+        <v>162</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>27</v>
+        <v>162</v>
       </c>
       <c r="J53" s="2" t="s">
         <v>28</v>
@@ -4738,13 +4753,13 @@
         <v>30</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>155</v>
+        <v>32</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>156</v>
+        <v>42</v>
       </c>
       <c r="P53" s="2" t="s">
-        <v>157</v>
+        <v>32</v>
       </c>
       <c r="Q53" s="2" t="s">
         <v>32</v>
@@ -4761,8 +4776,8 @@
       <c r="U53" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V53" s="2" t="s">
-        <v>32</v>
+      <c r="V53" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="54">
@@ -4776,22 +4791,22 @@
         <v>22</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>154</v>
+        <v>65</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>72</v>
+        <v>160</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>95</v>
+        <v>161</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>96</v>
+        <v>162</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>96</v>
+        <v>162</v>
       </c>
       <c r="J54" s="2" t="s">
         <v>28</v>
@@ -4806,10 +4821,10 @@
         <v>30</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P54" s="2" t="s">
         <v>32</v>
@@ -4829,8 +4844,8 @@
       <c r="U54" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V54" s="2" t="s">
-        <v>32</v>
+      <c r="V54" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="55">
@@ -4844,22 +4859,22 @@
         <v>22</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>154</v>
+        <v>40</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>63</v>
+        <v>165</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>64</v>
+        <v>166</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>65</v>
+        <v>167</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>65</v>
+        <v>167</v>
       </c>
       <c r="J55" s="2" t="s">
         <v>28</v>
@@ -4874,10 +4889,10 @@
         <v>30</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="P55" s="2" t="s">
         <v>32</v>
@@ -4897,8 +4912,8 @@
       <c r="U55" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V55" s="2" t="s">
-        <v>32</v>
+      <c r="V55" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="56">
@@ -4912,22 +4927,22 @@
         <v>22</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="J56" s="2" t="s">
         <v>28</v>
@@ -4942,10 +4957,10 @@
         <v>30</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="O56" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="P56" s="2" t="s">
         <v>32</v>
@@ -4965,8 +4980,8 @@
       <c r="U56" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V56" s="2" t="s">
-        <v>32</v>
+      <c r="V56" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="57">
@@ -4980,22 +4995,22 @@
         <v>22</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>154</v>
+        <v>56</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>44</v>
+        <v>165</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>45</v>
+        <v>166</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>46</v>
+        <v>167</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>46</v>
+        <v>167</v>
       </c>
       <c r="J57" s="2" t="s">
         <v>28</v>
@@ -5010,10 +5025,10 @@
         <v>30</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="O57" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="P57" s="2" t="s">
         <v>32</v>
@@ -5033,8 +5048,8 @@
       <c r="U57" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V57" s="2" t="s">
-        <v>32</v>
+      <c r="V57" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="58">
@@ -5048,22 +5063,22 @@
         <v>22</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>154</v>
+        <v>60</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>116</v>
+        <v>165</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>117</v>
+        <v>166</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>118</v>
+        <v>167</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>119</v>
+        <v>167</v>
       </c>
       <c r="J58" s="2" t="s">
         <v>28</v>
@@ -5078,10 +5093,10 @@
         <v>30</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="O58" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="P58" s="2" t="s">
         <v>32</v>
@@ -5101,8 +5116,8 @@
       <c r="U58" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V58" s="2" t="s">
-        <v>32</v>
+      <c r="V58" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="59">
@@ -5119,19 +5134,19 @@
         <v>38</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>154</v>
+        <v>65</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="J59" s="2" t="s">
         <v>28</v>
@@ -5149,7 +5164,7 @@
         <v>32</v>
       </c>
       <c r="O59" s="2" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="P59" s="2" t="s">
         <v>32</v>
@@ -5169,8 +5184,8 @@
       <c r="U59" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V59" s="2" t="s">
-        <v>32</v>
+      <c r="V59" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="60">
@@ -5184,22 +5199,22 @@
         <v>22</v>
       </c>
       <c r="D60" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G60" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E60" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="H60" s="1" t="s">
-        <v>51</v>
+        <v>167</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>51</v>
+        <v>167</v>
       </c>
       <c r="J60" s="2" t="s">
         <v>28</v>
@@ -5214,10 +5229,10 @@
         <v>30</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>136</v>
+        <v>32</v>
       </c>
       <c r="O60" s="2" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="P60" s="2" t="s">
         <v>32</v>
@@ -5237,8 +5252,8 @@
       <c r="U60" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V60" s="2" t="s">
-        <v>32</v>
+      <c r="V60" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="61">
@@ -5252,22 +5267,22 @@
         <v>22</v>
       </c>
       <c r="D61" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H61" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E61" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>170</v>
-      </c>
       <c r="I61" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J61" s="2" t="s">
         <v>28</v>
@@ -5282,10 +5297,10 @@
         <v>30</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="O61" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="P61" s="2" t="s">
         <v>32</v>
@@ -5305,8 +5320,8 @@
       <c r="U61" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V61" s="2" t="s">
-        <v>32</v>
+      <c r="V61" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="62">
@@ -5320,22 +5335,22 @@
         <v>22</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>172</v>
+        <v>82</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>25</v>
+        <v>165</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>26</v>
+        <v>166</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>27</v>
+        <v>167</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>27</v>
+        <v>167</v>
       </c>
       <c r="J62" s="2" t="s">
         <v>28</v>
@@ -5350,10 +5365,10 @@
         <v>30</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>173</v>
+        <v>42</v>
       </c>
       <c r="O62" s="2" t="s">
-        <v>174</v>
+        <v>32</v>
       </c>
       <c r="P62" s="2" t="s">
         <v>32</v>
@@ -5373,8 +5388,8 @@
       <c r="U62" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V62" s="2" t="s">
-        <v>32</v>
+      <c r="V62" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="63">
@@ -5388,22 +5403,22 @@
         <v>22</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>172</v>
+        <v>85</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>56</v>
+        <v>165</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>57</v>
+        <v>166</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
       <c r="J63" s="2" t="s">
         <v>28</v>
@@ -5418,10 +5433,10 @@
         <v>30</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="O63" s="2" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="P63" s="2" t="s">
         <v>32</v>
@@ -5441,8 +5456,8 @@
       <c r="U63" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V63" s="2" t="s">
-        <v>32</v>
+      <c r="V63" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="64">
@@ -5456,22 +5471,22 @@
         <v>22</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>172</v>
+        <v>89</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>72</v>
+        <v>165</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>95</v>
+        <v>166</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>96</v>
+        <v>167</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>96</v>
+        <v>167</v>
       </c>
       <c r="J64" s="2" t="s">
         <v>28</v>
@@ -5486,7 +5501,7 @@
         <v>30</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="O64" s="2" t="s">
         <v>32</v>
@@ -5509,8 +5524,8 @@
       <c r="U64" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V64" s="2" t="s">
-        <v>32</v>
+      <c r="V64" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="65">
@@ -5524,13 +5539,13 @@
         <v>22</v>
       </c>
       <c r="D65" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F65" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>157</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>178</v>
@@ -5539,7 +5554,7 @@
         <v>179</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J65" s="2" t="s">
         <v>28</v>
@@ -5557,7 +5572,7 @@
         <v>32</v>
       </c>
       <c r="O65" s="2" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="P65" s="2" t="s">
         <v>32</v>
@@ -5577,8 +5592,8 @@
       <c r="U65" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V65" s="2" t="s">
-        <v>32</v>
+      <c r="V65" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="66">
@@ -5592,22 +5607,22 @@
         <v>22</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>172</v>
+        <v>70</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>63</v>
+        <v>177</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>64</v>
+        <v>178</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>65</v>
+        <v>179</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>65</v>
+        <v>179</v>
       </c>
       <c r="J66" s="2" t="s">
         <v>28</v>
@@ -5625,7 +5640,7 @@
         <v>32</v>
       </c>
       <c r="O66" s="2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="P66" s="2" t="s">
         <v>32</v>
@@ -5645,8 +5660,8 @@
       <c r="U66" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V66" s="2" t="s">
-        <v>32</v>
+      <c r="V66" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="67">
@@ -5660,22 +5675,22 @@
         <v>22</v>
       </c>
       <c r="D67" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F67" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="E67" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="G67" s="1" t="s">
-        <v>117</v>
+        <v>183</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>118</v>
+        <v>184</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>119</v>
+        <v>184</v>
       </c>
       <c r="J67" s="2" t="s">
         <v>28</v>
@@ -5690,10 +5705,10 @@
         <v>30</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="O67" s="2" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="P67" s="2" t="s">
         <v>32</v>
@@ -5713,8 +5728,8 @@
       <c r="U67" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V67" s="2" t="s">
-        <v>32</v>
+      <c r="V67" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="68">
@@ -5728,22 +5743,22 @@
         <v>22</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>172</v>
+        <v>40</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>163</v>
+        <v>186</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>165</v>
+        <v>188</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="J68" s="2" t="s">
         <v>28</v>
@@ -5758,10 +5773,10 @@
         <v>30</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="O68" s="2" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="P68" s="2" t="s">
         <v>32</v>
@@ -5781,8 +5796,8 @@
       <c r="U68" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V68" s="2" t="s">
-        <v>32</v>
+      <c r="V68" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="69">
@@ -5796,22 +5811,22 @@
         <v>22</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>172</v>
+        <v>36</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>49</v>
+        <v>191</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>50</v>
+        <v>192</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>51</v>
+        <v>193</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>51</v>
+        <v>193</v>
       </c>
       <c r="J69" s="2" t="s">
         <v>28</v>
@@ -5826,13 +5841,13 @@
         <v>30</v>
       </c>
       <c r="N69" s="2" t="s">
-        <v>136</v>
+        <v>42</v>
       </c>
       <c r="O69" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="P69" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="Q69" s="2" t="s">
         <v>32</v>
@@ -5849,8 +5864,8 @@
       <c r="U69" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V69" s="2" t="s">
-        <v>32</v>
+      <c r="V69" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="70">
@@ -5864,22 +5879,22 @@
         <v>22</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>172</v>
+        <v>40</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>168</v>
+        <v>191</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="J70" s="2" t="s">
         <v>28</v>
@@ -5894,10 +5909,10 @@
         <v>30</v>
       </c>
       <c r="N70" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="O70" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="P70" s="2" t="s">
         <v>32</v>
@@ -5917,8 +5932,8 @@
       <c r="U70" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V70" s="2" t="s">
-        <v>32</v>
+      <c r="V70" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="71">
@@ -5932,22 +5947,22 @@
         <v>22</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>25</v>
+        <v>191</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>26</v>
+        <v>192</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>27</v>
+        <v>193</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>27</v>
+        <v>193</v>
       </c>
       <c r="J71" s="2" t="s">
         <v>28</v>
@@ -5962,7 +5977,7 @@
         <v>30</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>187</v>
+        <v>42</v>
       </c>
       <c r="O71" s="2" t="s">
         <v>32</v>
@@ -5985,8 +6000,8 @@
       <c r="U71" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V71" s="2" t="s">
-        <v>32</v>
+      <c r="V71" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="72">
@@ -6000,22 +6015,22 @@
         <v>22</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>60</v>
+        <v>155</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>186</v>
+        <v>36</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>116</v>
+        <v>195</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>117</v>
+        <v>196</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>118</v>
+        <v>197</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>119</v>
+        <v>197</v>
       </c>
       <c r="J72" s="2" t="s">
         <v>28</v>
@@ -6030,7 +6045,7 @@
         <v>30</v>
       </c>
       <c r="N72" s="2" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="O72" s="2" t="s">
         <v>32</v>
@@ -6045,7 +6060,7 @@
         <v>32</v>
       </c>
       <c r="S72" s="2" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="T72" s="2" t="s">
         <v>32</v>
@@ -6053,8 +6068,8 @@
       <c r="U72" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V72" s="2" t="s">
-        <v>32</v>
+      <c r="V72" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="73">
@@ -6068,22 +6083,22 @@
         <v>22</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>189</v>
+        <v>40</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>25</v>
+        <v>195</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>26</v>
+        <v>196</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="J73" s="2" t="s">
         <v>28</v>
@@ -6098,7 +6113,7 @@
         <v>30</v>
       </c>
       <c r="N73" s="2" t="s">
-        <v>190</v>
+        <v>116</v>
       </c>
       <c r="O73" s="2" t="s">
         <v>32</v>
@@ -6121,8 +6136,8 @@
       <c r="U73" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V73" s="2" t="s">
-        <v>32</v>
+      <c r="V73" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="74">
@@ -6136,22 +6151,22 @@
         <v>22</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>189</v>
+        <v>43</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>63</v>
+        <v>195</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>64</v>
+        <v>196</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>65</v>
+        <v>197</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>65</v>
+        <v>197</v>
       </c>
       <c r="J74" s="2" t="s">
         <v>28</v>
@@ -6166,7 +6181,7 @@
         <v>30</v>
       </c>
       <c r="N74" s="2" t="s">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="O74" s="2" t="s">
         <v>32</v>
@@ -6189,8 +6204,8 @@
       <c r="U74" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V74" s="2" t="s">
-        <v>32</v>
+      <c r="V74" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="75">
@@ -6204,22 +6219,22 @@
         <v>22</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>189</v>
+        <v>49</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>116</v>
+        <v>195</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>117</v>
+        <v>196</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>118</v>
+        <v>197</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>119</v>
+        <v>197</v>
       </c>
       <c r="J75" s="2" t="s">
         <v>28</v>
@@ -6234,7 +6249,7 @@
         <v>30</v>
       </c>
       <c r="N75" s="2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="O75" s="2" t="s">
         <v>32</v>
@@ -6249,7 +6264,7 @@
         <v>32</v>
       </c>
       <c r="S75" s="2" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="T75" s="2" t="s">
         <v>32</v>
@@ -6257,8 +6272,8 @@
       <c r="U75" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V75" s="2" t="s">
-        <v>32</v>
+      <c r="V75" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="76">
@@ -6272,22 +6287,22 @@
         <v>22</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>194</v>
+        <v>70</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>25</v>
+        <v>195</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>26</v>
+        <v>196</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="J76" s="2" t="s">
         <v>28</v>
@@ -6302,13 +6317,13 @@
         <v>30</v>
       </c>
       <c r="N76" s="2" t="s">
-        <v>195</v>
+        <v>32</v>
       </c>
       <c r="O76" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="P76" s="2" t="s">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="Q76" s="2" t="s">
         <v>32</v>
@@ -6325,8 +6340,8 @@
       <c r="U76" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V76" s="2" t="s">
-        <v>32</v>
+      <c r="V76" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="77">
@@ -6340,22 +6355,22 @@
         <v>22</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>194</v>
+        <v>49</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>72</v>
+        <v>203</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>95</v>
+        <v>204</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>96</v>
+        <v>205</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>96</v>
+        <v>205</v>
       </c>
       <c r="J77" s="2" t="s">
         <v>28</v>
@@ -6370,13 +6385,13 @@
         <v>30</v>
       </c>
       <c r="N77" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="O77" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P77" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="Q77" s="2" t="s">
         <v>32</v>
@@ -6393,8 +6408,8 @@
       <c r="U77" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V77" s="2" t="s">
-        <v>32</v>
+      <c r="V77" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="78">
@@ -6408,22 +6423,22 @@
         <v>22</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>194</v>
+        <v>56</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>63</v>
+        <v>203</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>64</v>
+        <v>204</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>65</v>
+        <v>205</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>65</v>
+        <v>205</v>
       </c>
       <c r="J78" s="2" t="s">
         <v>28</v>
@@ -6438,7 +6453,7 @@
         <v>30</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O78" s="2" t="s">
         <v>32</v>
@@ -6461,8 +6476,8 @@
       <c r="U78" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V78" s="2" t="s">
-        <v>32</v>
+      <c r="V78" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="79">
@@ -6476,22 +6491,22 @@
         <v>22</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>199</v>
+        <v>60</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>25</v>
+        <v>203</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>26</v>
+        <v>204</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>27</v>
+        <v>205</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>27</v>
+        <v>205</v>
       </c>
       <c r="J79" s="2" t="s">
         <v>28</v>
@@ -6506,7 +6521,7 @@
         <v>30</v>
       </c>
       <c r="N79" s="2" t="s">
-        <v>200</v>
+        <v>42</v>
       </c>
       <c r="O79" s="2" t="s">
         <v>32</v>
@@ -6529,8 +6544,8 @@
       <c r="U79" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V79" s="2" t="s">
-        <v>32</v>
+      <c r="V79" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="80">
@@ -6544,22 +6559,22 @@
         <v>22</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>199</v>
+        <v>70</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>72</v>
+        <v>209</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>95</v>
+        <v>210</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>96</v>
+        <v>211</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>96</v>
+        <v>211</v>
       </c>
       <c r="J80" s="2" t="s">
         <v>28</v>
@@ -6574,10 +6589,10 @@
         <v>30</v>
       </c>
       <c r="N80" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="O80" s="2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="P80" s="2" t="s">
         <v>32</v>
@@ -6597,8 +6612,8 @@
       <c r="U80" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V80" s="2" t="s">
-        <v>32</v>
+      <c r="V80" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="81">
@@ -6612,22 +6627,22 @@
         <v>22</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>199</v>
+        <v>75</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>63</v>
+        <v>209</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>64</v>
+        <v>210</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>65</v>
+        <v>211</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>65</v>
+        <v>211</v>
       </c>
       <c r="J81" s="2" t="s">
         <v>28</v>
@@ -6642,10 +6657,10 @@
         <v>30</v>
       </c>
       <c r="N81" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="O81" s="2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="P81" s="2" t="s">
         <v>32</v>
@@ -6665,8 +6680,8 @@
       <c r="U81" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V81" s="2" t="s">
-        <v>32</v>
+      <c r="V81" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="82">
@@ -6680,22 +6695,22 @@
         <v>22</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>204</v>
+        <v>36</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>25</v>
+        <v>214</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>26</v>
+        <v>215</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>27</v>
+        <v>216</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>27</v>
+        <v>216</v>
       </c>
       <c r="J82" s="2" t="s">
         <v>28</v>
@@ -6710,7 +6725,7 @@
         <v>30</v>
       </c>
       <c r="N82" s="2" t="s">
-        <v>205</v>
+        <v>42</v>
       </c>
       <c r="O82" s="2" t="s">
         <v>32</v>
@@ -6733,8 +6748,8 @@
       <c r="U82" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V82" s="2" t="s">
-        <v>32</v>
+      <c r="V82" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="83">
@@ -6748,22 +6763,22 @@
         <v>22</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>204</v>
+        <v>40</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>72</v>
+        <v>214</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>95</v>
+        <v>215</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>96</v>
+        <v>216</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>96</v>
+        <v>216</v>
       </c>
       <c r="J83" s="2" t="s">
         <v>28</v>
@@ -6778,7 +6793,7 @@
         <v>30</v>
       </c>
       <c r="N83" s="2" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="O83" s="2" t="s">
         <v>32</v>
@@ -6801,8 +6816,8 @@
       <c r="U83" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V83" s="2" t="s">
-        <v>32</v>
+      <c r="V83" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="84">
@@ -6816,22 +6831,22 @@
         <v>22</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>208</v>
+        <v>43</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>25</v>
+        <v>214</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>26</v>
+        <v>215</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>27</v>
+        <v>216</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>27</v>
+        <v>216</v>
       </c>
       <c r="J84" s="2" t="s">
         <v>28</v>
@@ -6846,7 +6861,7 @@
         <v>30</v>
       </c>
       <c r="N84" s="2" t="s">
-        <v>209</v>
+        <v>88</v>
       </c>
       <c r="O84" s="2" t="s">
         <v>32</v>
@@ -6869,8 +6884,8 @@
       <c r="U84" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V84" s="2" t="s">
-        <v>32</v>
+      <c r="V84" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="85">
@@ -6884,22 +6899,22 @@
         <v>22</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>208</v>
+        <v>46</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>72</v>
+        <v>214</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>95</v>
+        <v>215</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>96</v>
+        <v>216</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>96</v>
+        <v>216</v>
       </c>
       <c r="J85" s="2" t="s">
         <v>28</v>
@@ -6914,13 +6929,13 @@
         <v>30</v>
       </c>
       <c r="N85" s="2" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="O85" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P85" s="2" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="Q85" s="2" t="s">
         <v>32</v>
@@ -6937,8 +6952,8 @@
       <c r="U85" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V85" s="2" t="s">
-        <v>32</v>
+      <c r="V85" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="86">
@@ -6952,22 +6967,22 @@
         <v>22</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>212</v>
+        <v>52</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>25</v>
+        <v>214</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>26</v>
+        <v>215</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>27</v>
+        <v>216</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>27</v>
+        <v>216</v>
       </c>
       <c r="J86" s="2" t="s">
         <v>28</v>
@@ -6982,7 +6997,7 @@
         <v>30</v>
       </c>
       <c r="N86" s="2" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="O86" s="2" t="s">
         <v>32</v>
@@ -7005,8 +7020,8 @@
       <c r="U86" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V86" s="2" t="s">
-        <v>32</v>
+      <c r="V86" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="87">
@@ -7020,22 +7035,22 @@
         <v>22</v>
       </c>
       <c r="D87" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F87" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="E87" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="G87" s="1" t="s">
-        <v>95</v>
+        <v>215</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>96</v>
+        <v>216</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>96</v>
+        <v>216</v>
       </c>
       <c r="J87" s="2" t="s">
         <v>28</v>
@@ -7050,7 +7065,7 @@
         <v>30</v>
       </c>
       <c r="N87" s="2" t="s">
-        <v>43</v>
+        <v>223</v>
       </c>
       <c r="O87" s="2" t="s">
         <v>32</v>
@@ -7073,8 +7088,8 @@
       <c r="U87" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V87" s="2" t="s">
-        <v>32</v>
+      <c r="V87" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="88">
@@ -7088,22 +7103,22 @@
         <v>22</v>
       </c>
       <c r="D88" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G88" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="E88" s="2" t="s">
+      <c r="H88" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="F88" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H88" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="I88" s="1" t="s">
-        <v>27</v>
+        <v>216</v>
       </c>
       <c r="J88" s="2" t="s">
         <v>28</v>
@@ -7118,7 +7133,7 @@
         <v>30</v>
       </c>
       <c r="N88" s="2" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="O88" s="2" t="s">
         <v>32</v>
@@ -7141,8 +7156,8 @@
       <c r="U88" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V88" s="2" t="s">
-        <v>32</v>
+      <c r="V88" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="89">
@@ -7156,22 +7171,22 @@
         <v>22</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="E89" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="H89" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="F89" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H89" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="I89" s="1" t="s">
-        <v>96</v>
+        <v>216</v>
       </c>
       <c r="J89" s="2" t="s">
         <v>28</v>
@@ -7186,10 +7201,10 @@
         <v>30</v>
       </c>
       <c r="N89" s="2" t="s">
-        <v>43</v>
+        <v>225</v>
       </c>
       <c r="O89" s="2" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="P89" s="2" t="s">
         <v>32</v>
@@ -7209,8 +7224,8 @@
       <c r="U89" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V89" s="2" t="s">
-        <v>32</v>
+      <c r="V89" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="90">
@@ -7224,22 +7239,22 @@
         <v>22</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>220</v>
+        <v>70</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>25</v>
+        <v>214</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>26</v>
+        <v>215</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>27</v>
+        <v>216</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>27</v>
+        <v>216</v>
       </c>
       <c r="J90" s="2" t="s">
         <v>28</v>
@@ -7254,10 +7269,10 @@
         <v>30</v>
       </c>
       <c r="N90" s="2" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="O90" s="2" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="P90" s="2" t="s">
         <v>32</v>
@@ -7277,8 +7292,8 @@
       <c r="U90" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V90" s="2" t="s">
-        <v>32</v>
+      <c r="V90" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="91">
@@ -7292,22 +7307,22 @@
         <v>22</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>220</v>
+        <v>75</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>116</v>
+        <v>214</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>117</v>
+        <v>215</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>118</v>
+        <v>216</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>119</v>
+        <v>216</v>
       </c>
       <c r="J91" s="2" t="s">
         <v>28</v>
@@ -7322,13 +7337,13 @@
         <v>30</v>
       </c>
       <c r="N91" s="2" t="s">
-        <v>32</v>
+        <v>225</v>
       </c>
       <c r="O91" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="P91" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="Q91" s="2" t="s">
         <v>32</v>
@@ -7337,7 +7352,7 @@
         <v>32</v>
       </c>
       <c r="S91" s="2" t="s">
-        <v>223</v>
+        <v>32</v>
       </c>
       <c r="T91" s="2" t="s">
         <v>32</v>
@@ -7345,8 +7360,8 @@
       <c r="U91" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V91" s="2" t="s">
-        <v>32</v>
+      <c r="V91" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="92">
@@ -7360,22 +7375,22 @@
         <v>22</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>129</v>
+        <v>160</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>224</v>
+        <v>70</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>25</v>
+        <v>229</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>26</v>
+        <v>230</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>27</v>
+        <v>231</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>27</v>
+        <v>231</v>
       </c>
       <c r="J92" s="2" t="s">
         <v>28</v>
@@ -7390,10 +7405,10 @@
         <v>30</v>
       </c>
       <c r="N92" s="2" t="s">
-        <v>225</v>
+        <v>42</v>
       </c>
       <c r="O92" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="P92" s="2" t="s">
         <v>32</v>
@@ -7413,8 +7428,8 @@
       <c r="U92" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V92" s="2" t="s">
-        <v>32</v>
+      <c r="V92" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="93">
@@ -7428,22 +7443,22 @@
         <v>22</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>63</v>
+        <v>165</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>224</v>
+        <v>75</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>116</v>
+        <v>229</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>117</v>
+        <v>230</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>118</v>
+        <v>231</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>119</v>
+        <v>231</v>
       </c>
       <c r="J93" s="2" t="s">
         <v>28</v>
@@ -7461,7 +7476,7 @@
         <v>32</v>
       </c>
       <c r="O93" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="P93" s="2" t="s">
         <v>32</v>
@@ -7473,7 +7488,7 @@
         <v>32</v>
       </c>
       <c r="S93" s="2" t="s">
-        <v>223</v>
+        <v>32</v>
       </c>
       <c r="T93" s="2" t="s">
         <v>32</v>
@@ -7481,8 +7496,8 @@
       <c r="U93" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V93" s="2" t="s">
-        <v>32</v>
+      <c r="V93" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="94">
@@ -7496,22 +7511,22 @@
         <v>22</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>126</v>
+        <v>63</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>226</v>
+        <v>56</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>25</v>
+        <v>232</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>26</v>
+        <v>233</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>27</v>
+        <v>234</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>27</v>
+        <v>235</v>
       </c>
       <c r="J94" s="2" t="s">
         <v>28</v>
@@ -7526,10 +7541,10 @@
         <v>30</v>
       </c>
       <c r="N94" s="2" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="O94" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="P94" s="2" t="s">
         <v>32</v>
@@ -7549,8 +7564,8 @@
       <c r="U94" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V94" s="2" t="s">
-        <v>32</v>
+      <c r="V94" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="95">
@@ -7564,22 +7579,22 @@
         <v>22</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>226</v>
+        <v>60</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>116</v>
+        <v>232</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>117</v>
+        <v>233</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>118</v>
+        <v>234</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>119</v>
+        <v>235</v>
       </c>
       <c r="J95" s="2" t="s">
         <v>28</v>
@@ -7597,7 +7612,7 @@
         <v>32</v>
       </c>
       <c r="O95" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="P95" s="2" t="s">
         <v>32</v>
@@ -7609,7 +7624,7 @@
         <v>32</v>
       </c>
       <c r="S95" s="2" t="s">
-        <v>228</v>
+        <v>32</v>
       </c>
       <c r="T95" s="2" t="s">
         <v>32</v>
@@ -7617,8 +7632,8 @@
       <c r="U95" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V95" s="2" t="s">
-        <v>32</v>
+      <c r="V95" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="96">
@@ -7632,22 +7647,22 @@
         <v>22</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>230</v>
+        <v>70</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>25</v>
+        <v>232</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>26</v>
+        <v>233</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>27</v>
+        <v>234</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>27</v>
+        <v>235</v>
       </c>
       <c r="J96" s="2" t="s">
         <v>28</v>
@@ -7662,10 +7677,10 @@
         <v>30</v>
       </c>
       <c r="N96" s="2" t="s">
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="O96" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="P96" s="2" t="s">
         <v>32</v>
@@ -7685,8 +7700,8 @@
       <c r="U96" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V96" s="2" t="s">
-        <v>32</v>
+      <c r="V96" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="97">
@@ -7700,22 +7715,22 @@
         <v>22</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>230</v>
+        <v>75</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>116</v>
+        <v>232</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>117</v>
+        <v>233</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>118</v>
+        <v>234</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>119</v>
+        <v>235</v>
       </c>
       <c r="J97" s="2" t="s">
         <v>28</v>
@@ -7733,7 +7748,7 @@
         <v>32</v>
       </c>
       <c r="O97" s="2" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="P97" s="2" t="s">
         <v>32</v>
@@ -7745,7 +7760,7 @@
         <v>32</v>
       </c>
       <c r="S97" s="2" t="s">
-        <v>232</v>
+        <v>32</v>
       </c>
       <c r="T97" s="2" t="s">
         <v>32</v>
@@ -7753,8 +7768,8 @@
       <c r="U97" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V97" s="2" t="s">
-        <v>32</v>
+      <c r="V97" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="98">
@@ -7768,22 +7783,22 @@
         <v>22</v>
       </c>
       <c r="D98" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="G98" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="E98" s="2" t="s">
+      <c r="H98" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="F98" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G98" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H98" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="I98" s="1" t="s">
-        <v>27</v>
+        <v>235</v>
       </c>
       <c r="J98" s="2" t="s">
         <v>28</v>
@@ -7798,7 +7813,7 @@
         <v>30</v>
       </c>
       <c r="N98" s="2" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="O98" s="2" t="s">
         <v>32</v>
@@ -7813,7 +7828,7 @@
         <v>32</v>
       </c>
       <c r="S98" s="2" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="T98" s="2" t="s">
         <v>32</v>
@@ -7821,8 +7836,8 @@
       <c r="U98" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V98" s="2" t="s">
-        <v>32</v>
+      <c r="V98" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="99">
@@ -7836,23 +7851,23 @@
         <v>22</v>
       </c>
       <c r="D99" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="I99" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="E99" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="G99" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H99" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="I99" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="J99" s="2" t="s">
         <v>28</v>
       </c>
@@ -7881,7 +7896,7 @@
         <v>32</v>
       </c>
       <c r="S99" s="2" t="s">
-        <v>236</v>
+        <v>45</v>
       </c>
       <c r="T99" s="2" t="s">
         <v>32</v>
@@ -7889,8 +7904,8 @@
       <c r="U99" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V99" s="2" t="s">
-        <v>32</v>
+      <c r="V99" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="100">
@@ -7904,22 +7919,22 @@
         <v>22</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>238</v>
+        <v>103</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>25</v>
+        <v>232</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>26</v>
+        <v>233</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>27</v>
+        <v>234</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>27</v>
+        <v>235</v>
       </c>
       <c r="J100" s="2" t="s">
         <v>28</v>
@@ -7934,7 +7949,7 @@
         <v>30</v>
       </c>
       <c r="N100" s="2" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="O100" s="2" t="s">
         <v>32</v>
@@ -7949,7 +7964,7 @@
         <v>32</v>
       </c>
       <c r="S100" s="2" t="s">
-        <v>32</v>
+        <v>242</v>
       </c>
       <c r="T100" s="2" t="s">
         <v>32</v>
@@ -7957,8 +7972,8 @@
       <c r="U100" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V100" s="2" t="s">
-        <v>32</v>
+      <c r="V100" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="101">
@@ -7972,22 +7987,22 @@
         <v>22</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>149</v>
+        <v>177</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>238</v>
+        <v>106</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>116</v>
+        <v>232</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>117</v>
+        <v>233</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>118</v>
+        <v>234</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>119</v>
+        <v>235</v>
       </c>
       <c r="J101" s="2" t="s">
         <v>28</v>
@@ -8017,7 +8032,7 @@
         <v>32</v>
       </c>
       <c r="S101" s="2" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="T101" s="2" t="s">
         <v>32</v>
@@ -8025,8 +8040,8 @@
       <c r="U101" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V101" s="2" t="s">
-        <v>32</v>
+      <c r="V101" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="102">
@@ -8040,22 +8055,22 @@
         <v>22</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>241</v>
+        <v>109</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>25</v>
+        <v>232</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>26</v>
+        <v>233</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>27</v>
+        <v>234</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>27</v>
+        <v>235</v>
       </c>
       <c r="J102" s="2" t="s">
         <v>28</v>
@@ -8070,7 +8085,7 @@
         <v>30</v>
       </c>
       <c r="N102" s="2" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="O102" s="2" t="s">
         <v>32</v>
@@ -8085,7 +8100,7 @@
         <v>32</v>
       </c>
       <c r="S102" s="2" t="s">
-        <v>32</v>
+        <v>244</v>
       </c>
       <c r="T102" s="2" t="s">
         <v>32</v>
@@ -8093,8 +8108,8 @@
       <c r="U102" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V102" s="2" t="s">
-        <v>32</v>
+      <c r="V102" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="103">
@@ -8108,22 +8123,22 @@
         <v>22</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>81</v>
+        <v>182</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>241</v>
+        <v>112</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>116</v>
+        <v>232</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>117</v>
+        <v>233</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>118</v>
+        <v>234</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>119</v>
+        <v>235</v>
       </c>
       <c r="J103" s="2" t="s">
         <v>28</v>
@@ -8153,7 +8168,7 @@
         <v>32</v>
       </c>
       <c r="S103" s="2" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="T103" s="2" t="s">
         <v>32</v>
@@ -8161,8 +8176,8 @@
       <c r="U103" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V103" s="2" t="s">
-        <v>32</v>
+      <c r="V103" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="104">
@@ -8176,22 +8191,22 @@
         <v>22</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>67</v>
+        <v>186</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>243</v>
+        <v>113</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>25</v>
+        <v>232</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>26</v>
+        <v>233</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>27</v>
+        <v>234</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>27</v>
+        <v>235</v>
       </c>
       <c r="J104" s="2" t="s">
         <v>28</v>
@@ -8206,7 +8221,7 @@
         <v>30</v>
       </c>
       <c r="N104" s="2" t="s">
-        <v>244</v>
+        <v>32</v>
       </c>
       <c r="O104" s="2" t="s">
         <v>32</v>
@@ -8221,7 +8236,7 @@
         <v>32</v>
       </c>
       <c r="S104" s="2" t="s">
-        <v>32</v>
+        <v>246</v>
       </c>
       <c r="T104" s="2" t="s">
         <v>32</v>
@@ -8229,8 +8244,8 @@
       <c r="U104" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V104" s="2" t="s">
-        <v>32</v>
+      <c r="V104" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="105">
@@ -8244,22 +8259,22 @@
         <v>22</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>243</v>
+        <v>115</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>116</v>
+        <v>232</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>117</v>
+        <v>233</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>118</v>
+        <v>234</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>119</v>
+        <v>235</v>
       </c>
       <c r="J105" s="2" t="s">
         <v>28</v>
@@ -8289,7 +8304,7 @@
         <v>32</v>
       </c>
       <c r="S105" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="T105" s="2" t="s">
         <v>32</v>
@@ -8297,8 +8312,8 @@
       <c r="U105" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V105" s="2" t="s">
-        <v>32</v>
+      <c r="V105" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="106">
@@ -8312,22 +8327,22 @@
         <v>22</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>248</v>
+        <v>117</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>25</v>
+        <v>232</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>26</v>
+        <v>233</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>27</v>
+        <v>234</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>27</v>
+        <v>235</v>
       </c>
       <c r="J106" s="2" t="s">
         <v>28</v>
@@ -8342,7 +8357,7 @@
         <v>30</v>
       </c>
       <c r="N106" s="2" t="s">
-        <v>249</v>
+        <v>32</v>
       </c>
       <c r="O106" s="2" t="s">
         <v>32</v>
@@ -8357,7 +8372,7 @@
         <v>32</v>
       </c>
       <c r="S106" s="2" t="s">
-        <v>32</v>
+        <v>250</v>
       </c>
       <c r="T106" s="2" t="s">
         <v>32</v>
@@ -8365,8 +8380,8 @@
       <c r="U106" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V106" s="2" t="s">
-        <v>32</v>
+      <c r="V106" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="107">
@@ -8380,22 +8395,22 @@
         <v>22</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>225</v>
+        <v>107</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>248</v>
+        <v>119</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>116</v>
+        <v>232</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>117</v>
+        <v>233</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>118</v>
+        <v>234</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>119</v>
+        <v>235</v>
       </c>
       <c r="J107" s="2" t="s">
         <v>28</v>
@@ -8425,7 +8440,7 @@
         <v>32</v>
       </c>
       <c r="S107" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="T107" s="2" t="s">
         <v>32</v>
@@ -8433,7 +8448,143 @@
       <c r="U107" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V107" s="2" t="s">
+      <c r="V107" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="J108" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K108" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L108" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M108" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N108" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O108" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P108" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q108" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R108" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S108" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="T108" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U108" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V108" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="J109" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K109" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L109" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M109" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N109" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O109" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P109" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q109" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R109" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S109" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="T109" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U109" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V109" s="2" t="s">
         <v>32</v>
       </c>
     </row>

--- a/Excel-XLSX/UN-UZB.xlsx
+++ b/Excel-XLSX/UN-UZB.xlsx
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>a7CNoG</t>
+    <t>cALvB0</t>
   </si>
   <si>
     <t>1993</t>
@@ -396,7 +396,7 @@
     <t>2023</t>
   </si>
   <si>
-    <t>13025</t>
+    <t>9405</t>
   </si>
   <si>
     <t>32</t>
@@ -783,7 +783,7 @@
     <t>108</t>
   </si>
   <si>
-    <t>25413</t>
+    <t>22496</t>
   </si>
 </sst>
 </file>
@@ -1308,8 +1308,8 @@
       <c r="U2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>33</v>
+      <c r="V2" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="3">
@@ -1376,8 +1376,8 @@
       <c r="U3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V3" s="1" t="s">
-        <v>33</v>
+      <c r="V3" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="4">
@@ -1444,8 +1444,8 @@
       <c r="U4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V4" s="1" t="s">
-        <v>33</v>
+      <c r="V4" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5">
@@ -1512,8 +1512,8 @@
       <c r="U5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V5" s="1" t="s">
-        <v>33</v>
+      <c r="V5" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="6">
@@ -1580,8 +1580,8 @@
       <c r="U6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V6" s="1" t="s">
-        <v>33</v>
+      <c r="V6" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="7">
@@ -1648,8 +1648,8 @@
       <c r="U7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V7" s="1" t="s">
-        <v>33</v>
+      <c r="V7" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="8">
@@ -1716,8 +1716,8 @@
       <c r="U8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V8" s="1" t="s">
-        <v>33</v>
+      <c r="V8" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="9">
@@ -1784,8 +1784,8 @@
       <c r="U9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V9" s="1" t="s">
-        <v>33</v>
+      <c r="V9" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="10">
@@ -1852,8 +1852,8 @@
       <c r="U10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V10" s="1" t="s">
-        <v>33</v>
+      <c r="V10" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="11">
@@ -1920,8 +1920,8 @@
       <c r="U11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V11" s="1" t="s">
-        <v>33</v>
+      <c r="V11" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="12">
@@ -1988,8 +1988,8 @@
       <c r="U12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V12" s="1" t="s">
-        <v>33</v>
+      <c r="V12" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="13">
@@ -2056,8 +2056,8 @@
       <c r="U13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V13" s="1" t="s">
-        <v>33</v>
+      <c r="V13" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="14">
@@ -2124,8 +2124,8 @@
       <c r="U14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V14" s="1" t="s">
-        <v>33</v>
+      <c r="V14" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="15">
@@ -2192,8 +2192,8 @@
       <c r="U15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V15" s="1" t="s">
-        <v>33</v>
+      <c r="V15" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="16">
@@ -2260,8 +2260,8 @@
       <c r="U16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V16" s="1" t="s">
-        <v>33</v>
+      <c r="V16" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="17">
@@ -2328,8 +2328,8 @@
       <c r="U17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V17" s="1" t="s">
-        <v>33</v>
+      <c r="V17" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="18">
@@ -2396,8 +2396,8 @@
       <c r="U18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V18" s="1" t="s">
-        <v>33</v>
+      <c r="V18" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="19">
@@ -2464,8 +2464,8 @@
       <c r="U19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V19" s="1" t="s">
-        <v>33</v>
+      <c r="V19" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="20">
@@ -2532,8 +2532,8 @@
       <c r="U20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V20" s="1" t="s">
-        <v>33</v>
+      <c r="V20" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="21">
@@ -2600,8 +2600,8 @@
       <c r="U21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V21" s="1" t="s">
-        <v>33</v>
+      <c r="V21" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="22">
@@ -2668,8 +2668,8 @@
       <c r="U22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V22" s="1" t="s">
-        <v>33</v>
+      <c r="V22" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="23">
@@ -2736,8 +2736,8 @@
       <c r="U23" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V23" s="1" t="s">
-        <v>33</v>
+      <c r="V23" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="24">
@@ -2804,8 +2804,8 @@
       <c r="U24" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V24" s="1" t="s">
-        <v>33</v>
+      <c r="V24" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="25">
@@ -2872,8 +2872,8 @@
       <c r="U25" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V25" s="1" t="s">
-        <v>33</v>
+      <c r="V25" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="26">
@@ -2940,8 +2940,8 @@
       <c r="U26" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V26" s="1" t="s">
-        <v>33</v>
+      <c r="V26" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="27">
@@ -3008,8 +3008,8 @@
       <c r="U27" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V27" s="1" t="s">
-        <v>33</v>
+      <c r="V27" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="28">
@@ -3076,8 +3076,8 @@
       <c r="U28" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V28" s="1" t="s">
-        <v>33</v>
+      <c r="V28" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="29">
@@ -3144,8 +3144,8 @@
       <c r="U29" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V29" s="1" t="s">
-        <v>33</v>
+      <c r="V29" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="30">
@@ -3212,8 +3212,8 @@
       <c r="U30" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V30" s="1" t="s">
-        <v>33</v>
+      <c r="V30" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="31">
@@ -3416,8 +3416,8 @@
       <c r="U33" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V33" s="1" t="s">
-        <v>33</v>
+      <c r="V33" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="34">
@@ -3484,8 +3484,8 @@
       <c r="U34" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V34" s="1" t="s">
-        <v>33</v>
+      <c r="V34" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="35">
@@ -3552,8 +3552,8 @@
       <c r="U35" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V35" s="1" t="s">
-        <v>33</v>
+      <c r="V35" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="36">
@@ -3620,8 +3620,8 @@
       <c r="U36" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V36" s="1" t="s">
-        <v>33</v>
+      <c r="V36" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="37">
@@ -3688,8 +3688,8 @@
       <c r="U37" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V37" s="1" t="s">
-        <v>33</v>
+      <c r="V37" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="38">
@@ -3756,8 +3756,8 @@
       <c r="U38" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V38" s="1" t="s">
-        <v>33</v>
+      <c r="V38" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="39">
@@ -3824,8 +3824,8 @@
       <c r="U39" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V39" s="1" t="s">
-        <v>33</v>
+      <c r="V39" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="40">
@@ -3892,8 +3892,8 @@
       <c r="U40" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V40" s="1" t="s">
-        <v>33</v>
+      <c r="V40" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="41">
@@ -3960,8 +3960,8 @@
       <c r="U41" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V41" s="1" t="s">
-        <v>33</v>
+      <c r="V41" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="42">
@@ -4028,8 +4028,8 @@
       <c r="U42" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V42" s="1" t="s">
-        <v>33</v>
+      <c r="V42" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="43">
@@ -4096,8 +4096,8 @@
       <c r="U43" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V43" s="1" t="s">
-        <v>33</v>
+      <c r="V43" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="44">
@@ -4164,8 +4164,8 @@
       <c r="U44" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V44" s="1" t="s">
-        <v>33</v>
+      <c r="V44" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="45">
@@ -4232,8 +4232,8 @@
       <c r="U45" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V45" s="1" t="s">
-        <v>33</v>
+      <c r="V45" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="46">
@@ -4300,8 +4300,8 @@
       <c r="U46" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V46" s="1" t="s">
-        <v>33</v>
+      <c r="V46" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="47">
@@ -4368,8 +4368,8 @@
       <c r="U47" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V47" s="1" t="s">
-        <v>33</v>
+      <c r="V47" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="48">
@@ -4436,8 +4436,8 @@
       <c r="U48" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V48" s="1" t="s">
-        <v>33</v>
+      <c r="V48" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="49">
@@ -4504,8 +4504,8 @@
       <c r="U49" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V49" s="1" t="s">
-        <v>33</v>
+      <c r="V49" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="50">
@@ -4572,8 +4572,8 @@
       <c r="U50" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V50" s="1" t="s">
-        <v>33</v>
+      <c r="V50" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="51">
@@ -4640,8 +4640,8 @@
       <c r="U51" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V51" s="1" t="s">
-        <v>33</v>
+      <c r="V51" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="52">
@@ -4708,8 +4708,8 @@
       <c r="U52" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V52" s="1" t="s">
-        <v>33</v>
+      <c r="V52" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="53">
@@ -4776,8 +4776,8 @@
       <c r="U53" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V53" s="1" t="s">
-        <v>33</v>
+      <c r="V53" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="54">
@@ -4844,8 +4844,8 @@
       <c r="U54" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V54" s="1" t="s">
-        <v>33</v>
+      <c r="V54" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="55">
@@ -4912,8 +4912,8 @@
       <c r="U55" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V55" s="1" t="s">
-        <v>33</v>
+      <c r="V55" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="56">
@@ -4980,8 +4980,8 @@
       <c r="U56" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V56" s="1" t="s">
-        <v>33</v>
+      <c r="V56" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="57">
@@ -5048,8 +5048,8 @@
       <c r="U57" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V57" s="1" t="s">
-        <v>33</v>
+      <c r="V57" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="58">
@@ -5116,8 +5116,8 @@
       <c r="U58" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V58" s="1" t="s">
-        <v>33</v>
+      <c r="V58" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="59">
@@ -5184,8 +5184,8 @@
       <c r="U59" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V59" s="1" t="s">
-        <v>33</v>
+      <c r="V59" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="60">
@@ -5252,8 +5252,8 @@
       <c r="U60" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V60" s="1" t="s">
-        <v>33</v>
+      <c r="V60" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="61">
@@ -5320,8 +5320,8 @@
       <c r="U61" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V61" s="1" t="s">
-        <v>33</v>
+      <c r="V61" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="62">
@@ -5388,8 +5388,8 @@
       <c r="U62" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V62" s="1" t="s">
-        <v>33</v>
+      <c r="V62" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="63">
@@ -5456,8 +5456,8 @@
       <c r="U63" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V63" s="1" t="s">
-        <v>33</v>
+      <c r="V63" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="64">
@@ -5524,8 +5524,8 @@
       <c r="U64" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V64" s="1" t="s">
-        <v>33</v>
+      <c r="V64" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="65">
@@ -5592,8 +5592,8 @@
       <c r="U65" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V65" s="1" t="s">
-        <v>33</v>
+      <c r="V65" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="66">
@@ -5660,8 +5660,8 @@
       <c r="U66" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V66" s="1" t="s">
-        <v>33</v>
+      <c r="V66" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="67">
@@ -5728,8 +5728,8 @@
       <c r="U67" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V67" s="1" t="s">
-        <v>33</v>
+      <c r="V67" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="68">
@@ -5796,8 +5796,8 @@
       <c r="U68" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V68" s="1" t="s">
-        <v>33</v>
+      <c r="V68" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="69">
@@ -5864,8 +5864,8 @@
       <c r="U69" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V69" s="1" t="s">
-        <v>33</v>
+      <c r="V69" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="70">
@@ -5932,8 +5932,8 @@
       <c r="U70" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V70" s="1" t="s">
-        <v>33</v>
+      <c r="V70" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="71">
@@ -6000,8 +6000,8 @@
       <c r="U71" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V71" s="1" t="s">
-        <v>33</v>
+      <c r="V71" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="72">
@@ -6068,8 +6068,8 @@
       <c r="U72" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V72" s="1" t="s">
-        <v>33</v>
+      <c r="V72" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="73">
@@ -6136,8 +6136,8 @@
       <c r="U73" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V73" s="1" t="s">
-        <v>33</v>
+      <c r="V73" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="74">
@@ -6204,8 +6204,8 @@
       <c r="U74" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V74" s="1" t="s">
-        <v>33</v>
+      <c r="V74" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="75">
@@ -6272,8 +6272,8 @@
       <c r="U75" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V75" s="1" t="s">
-        <v>33</v>
+      <c r="V75" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="76">
@@ -6340,8 +6340,8 @@
       <c r="U76" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V76" s="1" t="s">
-        <v>33</v>
+      <c r="V76" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="77">
@@ -6408,8 +6408,8 @@
       <c r="U77" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V77" s="1" t="s">
-        <v>33</v>
+      <c r="V77" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="78">
@@ -6476,8 +6476,8 @@
       <c r="U78" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V78" s="1" t="s">
-        <v>33</v>
+      <c r="V78" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="79">
@@ -6544,8 +6544,8 @@
       <c r="U79" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V79" s="1" t="s">
-        <v>33</v>
+      <c r="V79" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="80">
@@ -6612,8 +6612,8 @@
       <c r="U80" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V80" s="1" t="s">
-        <v>33</v>
+      <c r="V80" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="81">
@@ -6680,8 +6680,8 @@
       <c r="U81" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V81" s="1" t="s">
-        <v>33</v>
+      <c r="V81" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="82">
@@ -6748,8 +6748,8 @@
       <c r="U82" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V82" s="1" t="s">
-        <v>33</v>
+      <c r="V82" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="83">
@@ -6816,8 +6816,8 @@
       <c r="U83" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V83" s="1" t="s">
-        <v>33</v>
+      <c r="V83" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="84">
@@ -6884,8 +6884,8 @@
       <c r="U84" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V84" s="1" t="s">
-        <v>33</v>
+      <c r="V84" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="85">
@@ -6952,8 +6952,8 @@
       <c r="U85" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V85" s="1" t="s">
-        <v>33</v>
+      <c r="V85" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="86">
@@ -7020,8 +7020,8 @@
       <c r="U86" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V86" s="1" t="s">
-        <v>33</v>
+      <c r="V86" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="87">
@@ -7088,8 +7088,8 @@
       <c r="U87" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V87" s="1" t="s">
-        <v>33</v>
+      <c r="V87" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="88">
@@ -7156,8 +7156,8 @@
       <c r="U88" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V88" s="1" t="s">
-        <v>33</v>
+      <c r="V88" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="89">
@@ -7224,8 +7224,8 @@
       <c r="U89" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V89" s="1" t="s">
-        <v>33</v>
+      <c r="V89" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="90">
@@ -7292,8 +7292,8 @@
       <c r="U90" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V90" s="1" t="s">
-        <v>33</v>
+      <c r="V90" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="91">
@@ -7360,8 +7360,8 @@
       <c r="U91" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V91" s="1" t="s">
-        <v>33</v>
+      <c r="V91" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="92">
@@ -7428,8 +7428,8 @@
       <c r="U92" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V92" s="1" t="s">
-        <v>33</v>
+      <c r="V92" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="93">
@@ -7496,8 +7496,8 @@
       <c r="U93" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V93" s="1" t="s">
-        <v>33</v>
+      <c r="V93" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="94">
@@ -7564,8 +7564,8 @@
       <c r="U94" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V94" s="1" t="s">
-        <v>33</v>
+      <c r="V94" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="95">
@@ -7632,8 +7632,8 @@
       <c r="U95" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V95" s="1" t="s">
-        <v>33</v>
+      <c r="V95" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="96">
@@ -7700,8 +7700,8 @@
       <c r="U96" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V96" s="1" t="s">
-        <v>33</v>
+      <c r="V96" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="97">
@@ -7768,8 +7768,8 @@
       <c r="U97" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V97" s="1" t="s">
-        <v>33</v>
+      <c r="V97" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="98">
@@ -7836,8 +7836,8 @@
       <c r="U98" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V98" s="1" t="s">
-        <v>33</v>
+      <c r="V98" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="99">
@@ -7904,8 +7904,8 @@
       <c r="U99" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V99" s="1" t="s">
-        <v>33</v>
+      <c r="V99" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="100">
@@ -7972,8 +7972,8 @@
       <c r="U100" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V100" s="1" t="s">
-        <v>33</v>
+      <c r="V100" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="101">
@@ -8040,8 +8040,8 @@
       <c r="U101" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V101" s="1" t="s">
-        <v>33</v>
+      <c r="V101" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="102">
@@ -8108,8 +8108,8 @@
       <c r="U102" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V102" s="1" t="s">
-        <v>33</v>
+      <c r="V102" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="103">
@@ -8176,8 +8176,8 @@
       <c r="U103" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V103" s="1" t="s">
-        <v>33</v>
+      <c r="V103" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="104">
@@ -8244,8 +8244,8 @@
       <c r="U104" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V104" s="1" t="s">
-        <v>33</v>
+      <c r="V104" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="105">
@@ -8312,8 +8312,8 @@
       <c r="U105" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V105" s="1" t="s">
-        <v>33</v>
+      <c r="V105" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="106">
@@ -8380,8 +8380,8 @@
       <c r="U106" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V106" s="1" t="s">
-        <v>33</v>
+      <c r="V106" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="107">
@@ -8448,8 +8448,8 @@
       <c r="U107" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V107" s="1" t="s">
-        <v>33</v>
+      <c r="V107" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="108">

--- a/Excel-XLSX/UN-UZB.xlsx
+++ b/Excel-XLSX/UN-UZB.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="260">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -138,13 +138,112 @@
     <t>4</t>
   </si>
   <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>PAK</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>Russian Federation</t>
+  </si>
+  <si>
+    <t>RUS</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>189</t>
+  </si>
+  <si>
+    <t>Tajikistan</t>
+  </si>
+  <si>
+    <t>TJK</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
     <t>1996</t>
   </si>
   <si>
     <t>2823</t>
   </si>
   <si>
-    <t>5</t>
+    <t>8</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Armenia</t>
+  </si>
+  <si>
+    <t>ARM</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>GEO</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>IRQ</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>Dem. People's Rep. of Korea</t>
+  </si>
+  <si>
+    <t>KRN</t>
+  </si>
+  <si>
+    <t>PRK</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
   </si>
   <si>
     <t>1997</t>
@@ -153,7 +252,34 @@
     <t>3075</t>
   </si>
   <si>
-    <t>6</t>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>Rep. of Korea</t>
+  </si>
+  <si>
+    <t>KOR</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
   </si>
   <si>
     <t>1998</t>
@@ -162,7 +288,10 @@
     <t>1061</t>
   </si>
   <si>
-    <t>7</t>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
   </si>
   <si>
     <t>1999</t>
@@ -171,7 +300,28 @@
     <t>1002</t>
   </si>
   <si>
-    <t>8</t>
+    <t>26</t>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+  </si>
+  <si>
+    <t>AZE</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
+    <t>Serbia and Kosovo: S/RES/1244 (1999)</t>
+  </si>
+  <si>
+    <t>SRB</t>
+  </si>
+  <si>
+    <t>29</t>
   </si>
   <si>
     <t>2000</t>
@@ -183,7 +333,16 @@
     <t>1235</t>
   </si>
   <si>
-    <t>9</t>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>30001</t>
+  </si>
+  <si>
+    <t>32</t>
   </si>
   <si>
     <t>2001</t>
@@ -195,7 +354,37 @@
     <t>1316</t>
   </si>
   <si>
-    <t>10</t>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>216</t>
+  </si>
+  <si>
+    <t>Stateless</t>
+  </si>
+  <si>
+    <t>STA</t>
+  </si>
+  <si>
+    <t>XXA</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>30000</t>
+  </si>
+  <si>
+    <t>38</t>
   </si>
   <si>
     <t>2002</t>
@@ -210,7 +399,37 @@
     <t>93</t>
   </si>
   <si>
-    <t>11</t>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>Iran (Islamic Rep. of)</t>
+  </si>
+  <si>
+    <t>IRN</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>39202</t>
+  </si>
+  <si>
+    <t>45</t>
   </si>
   <si>
     <t>2003</t>
@@ -225,7 +444,40 @@
     <t>117</t>
   </si>
   <si>
-    <t>12</t>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>ETH</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>Kyrgyzstan</t>
+  </si>
+  <si>
+    <t>KGZ</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
   </si>
   <si>
     <t>2004</t>
@@ -240,7 +492,46 @@
     <t>69</t>
   </si>
   <si>
-    <t>13</t>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>Syrian Arab Rep.</t>
+  </si>
+  <si>
+    <t>SYR</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>Turkmenistan</t>
+  </si>
+  <si>
+    <t>TKM</t>
+  </si>
+  <si>
+    <t>61</t>
   </si>
   <si>
     <t>2005</t>
@@ -252,7 +543,37 @@
     <t>534</t>
   </si>
   <si>
-    <t>14</t>
+    <t>62</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>Palestinian</t>
+  </si>
+  <si>
+    <t>GAZ</t>
+  </si>
+  <si>
+    <t>PSE</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>70</t>
   </si>
   <si>
     <t>2006</t>
@@ -261,7 +582,7 @@
     <t>1415</t>
   </si>
   <si>
-    <t>15</t>
+    <t>72</t>
   </si>
   <si>
     <t>2007</t>
@@ -270,7 +591,13 @@
     <t>1047</t>
   </si>
   <si>
-    <t>16</t>
+    <t>73</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>75</t>
   </si>
   <si>
     <t>2008</t>
@@ -279,10 +606,13 @@
     <t>809</t>
   </si>
   <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>17</t>
+    <t>76</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>78</t>
   </si>
   <si>
     <t>2009</t>
@@ -291,7 +621,13 @@
     <t>546</t>
   </si>
   <si>
-    <t>18</t>
+    <t>79</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>81</t>
   </si>
   <si>
     <t>2010</t>
@@ -300,7 +636,10 @@
     <t>304</t>
   </si>
   <si>
-    <t>19</t>
+    <t>82</t>
+  </si>
+  <si>
+    <t>83</t>
   </si>
   <si>
     <t>2011</t>
@@ -309,7 +648,10 @@
     <t>211</t>
   </si>
   <si>
-    <t>20</t>
+    <t>84</t>
+  </si>
+  <si>
+    <t>85</t>
   </si>
   <si>
     <t>2012</t>
@@ -318,13 +660,22 @@
     <t>173</t>
   </si>
   <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
     <t>2013</t>
   </si>
   <si>
     <t>138</t>
   </si>
   <si>
-    <t>22</t>
+    <t>88</t>
+  </si>
+  <si>
+    <t>89</t>
   </si>
   <si>
     <t>2014</t>
@@ -333,7 +684,10 @@
     <t>123</t>
   </si>
   <si>
-    <t>23</t>
+    <t>90</t>
+  </si>
+  <si>
+    <t>86703</t>
   </si>
   <si>
     <t>2015</t>
@@ -342,37 +696,55 @@
     <t>106</t>
   </si>
   <si>
-    <t>24</t>
-  </si>
-  <si>
     <t>2016</t>
   </si>
   <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>25</t>
+    <t>94</t>
+  </si>
+  <si>
+    <t>86524</t>
+  </si>
+  <si>
+    <t>95</t>
   </si>
   <si>
     <t>2017</t>
   </si>
   <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>85555</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
     <t>2018</t>
   </si>
   <si>
-    <t>27</t>
+    <t>98</t>
+  </si>
+  <si>
+    <t>79942</t>
+  </si>
+  <si>
+    <t>99</t>
   </si>
   <si>
     <t>2019</t>
   </si>
   <si>
-    <t>28</t>
+    <t>97346</t>
+  </si>
+  <si>
+    <t>101</t>
   </si>
   <si>
     <t>2020</t>
   </si>
   <si>
-    <t>29</t>
+    <t>69791</t>
   </si>
   <si>
     <t>2021</t>
@@ -381,7 +753,13 @@
     <t>13032</t>
   </si>
   <si>
-    <t>30</t>
+    <t>104</t>
+  </si>
+  <si>
+    <t>37993</t>
+  </si>
+  <si>
+    <t>105</t>
   </si>
   <si>
     <t>2022</t>
@@ -390,7 +768,10 @@
     <t>13026</t>
   </si>
   <si>
-    <t>31</t>
+    <t>27389</t>
+  </si>
+  <si>
+    <t>107</t>
   </si>
   <si>
     <t>2023</t>
@@ -399,391 +780,22 @@
     <t>9405</t>
   </si>
   <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>Armenia</t>
-  </si>
-  <si>
-    <t>ARM</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>Azerbaijan</t>
-  </si>
-  <si>
-    <t>AZE</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>Ethiopia</t>
-  </si>
-  <si>
-    <t>ETH</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>Palestinian</t>
-  </si>
-  <si>
-    <t>GAZ</t>
-  </si>
-  <si>
-    <t>PSE</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>GEO</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>Iran (Islamic Rep. of)</t>
-  </si>
-  <si>
-    <t>IRN</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>Iraq</t>
-  </si>
-  <si>
-    <t>IRQ</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>Kyrgyzstan</t>
-  </si>
-  <si>
-    <t>KGZ</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>Rep. of Korea</t>
-  </si>
-  <si>
-    <t>KOR</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>Dem. People's Rep. of Korea</t>
-  </si>
-  <si>
-    <t>KRN</t>
-  </si>
-  <si>
-    <t>PRK</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>147</t>
-  </si>
-  <si>
-    <t>Pakistan</t>
-  </si>
-  <si>
-    <t>PAK</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>160</t>
-  </si>
-  <si>
-    <t>Russian Federation</t>
-  </si>
-  <si>
-    <t>RUS</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>164</t>
-  </si>
-  <si>
-    <t>Serbia and Kosovo: S/RES/1244 (1999)</t>
-  </si>
-  <si>
-    <t>SRB</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>185</t>
-  </si>
-  <si>
-    <t>Syrian Arab Rep.</t>
-  </si>
-  <si>
-    <t>SYR</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>189</t>
-  </si>
-  <si>
-    <t>Tajikistan</t>
-  </si>
-  <si>
-    <t>TJK</t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>30001</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>30000</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>39202</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>190</t>
-  </si>
-  <si>
-    <t>Turkmenistan</t>
-  </si>
-  <si>
-    <t>TKM</t>
-  </si>
-  <si>
-    <t>216</t>
-  </si>
-  <si>
-    <t>Stateless</t>
-  </si>
-  <si>
-    <t>STA</t>
-  </si>
-  <si>
-    <t>XXA</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>86703</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>86524</t>
-  </si>
-  <si>
-    <t>85555</t>
-  </si>
-  <si>
-    <t>79942</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>97346</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>69791</t>
-  </si>
-  <si>
-    <t>37993</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>27389</t>
-  </si>
-  <si>
     <t>108</t>
   </si>
   <si>
     <t>22496</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>8955</t>
+  </si>
+  <si>
+    <t>110</t>
   </si>
 </sst>
 </file>
@@ -1168,7 +1180,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V109"/>
+  <dimension ref="A1:V111"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -1462,19 +1474,19 @@
         <v>39</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>28</v>
@@ -1489,13 +1501,13 @@
         <v>30</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="O5" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="Q5" s="2" t="s">
         <v>32</v>
@@ -1527,22 +1539,22 @@
         <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>28</v>
@@ -1557,7 +1569,7 @@
         <v>30</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O6" s="2" t="s">
         <v>32</v>
@@ -1595,22 +1607,22 @@
         <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>28</v>
@@ -1625,7 +1637,7 @@
         <v>30</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>32</v>
@@ -1663,10 +1675,10 @@
         <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>25</v>
@@ -1693,13 +1705,13 @@
         <v>30</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O8" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="Q8" s="2" t="s">
         <v>32</v>
@@ -1731,22 +1743,22 @@
         <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>28</v>
@@ -1761,10 +1773,10 @@
         <v>30</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="P9" s="2" t="s">
         <v>32</v>
@@ -1799,22 +1811,22 @@
         <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>28</v>
@@ -1829,10 +1841,10 @@
         <v>30</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="P10" s="2" t="s">
         <v>32</v>
@@ -1867,22 +1879,22 @@
         <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>28</v>
@@ -1897,13 +1909,13 @@
         <v>30</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="Q11" s="2" t="s">
         <v>32</v>
@@ -1935,22 +1947,22 @@
         <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>28</v>
@@ -1965,13 +1977,13 @@
         <v>30</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="Q12" s="2" t="s">
         <v>32</v>
@@ -2003,22 +2015,22 @@
         <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>28</v>
@@ -2033,13 +2045,13 @@
         <v>30</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="Q13" s="2" t="s">
         <v>32</v>
@@ -2071,22 +2083,22 @@
         <v>22</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>28</v>
@@ -2101,10 +2113,10 @@
         <v>30</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="P14" s="2" t="s">
         <v>32</v>
@@ -2139,22 +2151,22 @@
         <v>22</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>28</v>
@@ -2169,7 +2181,7 @@
         <v>30</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="O15" s="2" t="s">
         <v>32</v>
@@ -2207,10 +2219,10 @@
         <v>22</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>25</v>
@@ -2237,7 +2249,7 @@
         <v>30</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="O16" s="2" t="s">
         <v>32</v>
@@ -2275,22 +2287,22 @@
         <v>22</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>28</v>
@@ -2305,13 +2317,13 @@
         <v>30</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="O17" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>87</v>
+        <v>32</v>
       </c>
       <c r="Q17" s="2" t="s">
         <v>32</v>
@@ -2343,22 +2355,22 @@
         <v>22</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>28</v>
@@ -2373,7 +2385,7 @@
         <v>30</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="O18" s="2" t="s">
         <v>32</v>
@@ -2411,22 +2423,22 @@
         <v>22</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>28</v>
@@ -2441,7 +2453,7 @@
         <v>30</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>93</v>
+        <v>52</v>
       </c>
       <c r="O19" s="2" t="s">
         <v>32</v>
@@ -2479,22 +2491,22 @@
         <v>22</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>28</v>
@@ -2509,7 +2521,7 @@
         <v>30</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="O20" s="2" t="s">
         <v>32</v>
@@ -2547,22 +2559,22 @@
         <v>22</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>28</v>
@@ -2577,7 +2589,7 @@
         <v>30</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="O21" s="2" t="s">
         <v>32</v>
@@ -2615,22 +2627,22 @@
         <v>22</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>28</v>
@@ -2645,7 +2657,7 @@
         <v>30</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="O22" s="2" t="s">
         <v>32</v>
@@ -2683,22 +2695,22 @@
         <v>22</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>28</v>
@@ -2713,7 +2725,7 @@
         <v>30</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="O23" s="2" t="s">
         <v>32</v>
@@ -2751,10 +2763,10 @@
         <v>22</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>25</v>
@@ -2781,7 +2793,7 @@
         <v>30</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="O24" s="2" t="s">
         <v>32</v>
@@ -2819,22 +2831,22 @@
         <v>22</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>28</v>
@@ -2849,13 +2861,13 @@
         <v>30</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>110</v>
+        <v>59</v>
       </c>
       <c r="O25" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="Q25" s="2" t="s">
         <v>32</v>
@@ -2887,10 +2899,10 @@
         <v>22</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>25</v>
@@ -2917,7 +2929,7 @@
         <v>30</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="O26" s="2" t="s">
         <v>32</v>
@@ -2955,22 +2967,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>28</v>
@@ -2985,7 +2997,7 @@
         <v>30</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="O27" s="2" t="s">
         <v>32</v>
@@ -3023,22 +3035,22 @@
         <v>22</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>28</v>
@@ -3053,7 +3065,7 @@
         <v>30</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="O28" s="2" t="s">
         <v>32</v>
@@ -3091,22 +3103,22 @@
         <v>22</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>116</v>
+        <v>73</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>25</v>
+        <v>98</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>28</v>
@@ -3121,13 +3133,13 @@
         <v>30</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="O29" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="Q29" s="2" t="s">
         <v>32</v>
@@ -3159,10 +3171,10 @@
         <v>22</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>25</v>
@@ -3189,10 +3201,10 @@
         <v>30</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>32</v>
+        <v>104</v>
       </c>
       <c r="P30" s="2" t="s">
         <v>32</v>
@@ -3227,22 +3239,22 @@
         <v>22</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>28</v>
@@ -3257,10 +3269,10 @@
         <v>30</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>123</v>
+        <v>32</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="P31" s="2" t="s">
         <v>32</v>
@@ -3295,22 +3307,22 @@
         <v>22</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>28</v>
@@ -3325,7 +3337,7 @@
         <v>30</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="O32" s="2" t="s">
         <v>32</v>
@@ -3363,22 +3375,22 @@
         <v>22</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>40</v>
+        <v>109</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>128</v>
+        <v>26</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>129</v>
+        <v>27</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>129</v>
+        <v>27</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>28</v>
@@ -3393,10 +3405,10 @@
         <v>30</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>32</v>
+        <v>111</v>
       </c>
       <c r="P33" s="2" t="s">
         <v>32</v>
@@ -3431,22 +3443,22 @@
         <v>22</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="J34" s="2" t="s">
         <v>28</v>
@@ -3461,10 +3473,10 @@
         <v>30</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="P34" s="2" t="s">
         <v>32</v>
@@ -3499,22 +3511,22 @@
         <v>22</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>129</v>
+        <v>65</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>129</v>
+        <v>65</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>28</v>
@@ -3529,10 +3541,10 @@
         <v>30</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="P35" s="2" t="s">
         <v>32</v>
@@ -3567,22 +3579,22 @@
         <v>22</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>134</v>
+        <v>100</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>134</v>
+        <v>100</v>
       </c>
       <c r="J36" s="2" t="s">
         <v>28</v>
@@ -3597,7 +3609,7 @@
         <v>30</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O36" s="2" t="s">
         <v>32</v>
@@ -3635,22 +3647,22 @@
         <v>22</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>28</v>
@@ -3668,7 +3680,7 @@
         <v>32</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="P37" s="2" t="s">
         <v>32</v>
@@ -3703,22 +3715,22 @@
         <v>22</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>56</v>
+        <v>109</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>133</v>
+        <v>50</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>134</v>
+        <v>51</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>134</v>
+        <v>51</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>28</v>
@@ -3733,10 +3745,10 @@
         <v>30</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>32</v>
+        <v>121</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="P38" s="2" t="s">
         <v>32</v>
@@ -3771,22 +3783,22 @@
         <v>22</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>60</v>
+        <v>123</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>133</v>
+        <v>26</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>134</v>
+        <v>27</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>134</v>
+        <v>27</v>
       </c>
       <c r="J39" s="2" t="s">
         <v>28</v>
@@ -3801,13 +3813,13 @@
         <v>30</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>42</v>
+        <v>124</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>42</v>
+        <v>125</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>32</v>
+        <v>126</v>
       </c>
       <c r="Q39" s="2" t="s">
         <v>32</v>
@@ -3839,22 +3851,22 @@
         <v>22</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>65</v>
+        <v>123</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>133</v>
+        <v>95</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>134</v>
+        <v>96</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>134</v>
+        <v>96</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>28</v>
@@ -3869,10 +3881,10 @@
         <v>30</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P40" s="2" t="s">
         <v>32</v>
@@ -3907,22 +3919,22 @@
         <v>22</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>70</v>
+        <v>123</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>74</v>
+        <v>129</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>28</v>
@@ -3937,10 +3949,10 @@
         <v>30</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P41" s="2" t="s">
         <v>32</v>
@@ -3975,22 +3987,22 @@
         <v>22</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>75</v>
+        <v>123</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>133</v>
+        <v>64</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>134</v>
+        <v>65</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>134</v>
+        <v>65</v>
       </c>
       <c r="J42" s="2" t="s">
         <v>28</v>
@@ -4005,7 +4017,7 @@
         <v>30</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="O42" s="2" t="s">
         <v>32</v>
@@ -4043,22 +4055,22 @@
         <v>22</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>85</v>
+        <v>123</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>134</v>
+        <v>100</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>134</v>
+        <v>100</v>
       </c>
       <c r="J43" s="2" t="s">
         <v>28</v>
@@ -4073,7 +4085,7 @@
         <v>30</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O43" s="2" t="s">
         <v>32</v>
@@ -4111,22 +4123,22 @@
         <v>22</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="J44" s="2" t="s">
         <v>28</v>
@@ -4141,10 +4153,10 @@
         <v>30</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="P44" s="2" t="s">
         <v>32</v>
@@ -4179,22 +4191,22 @@
         <v>22</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>92</v>
+        <v>123</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>133</v>
+        <v>50</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>134</v>
+        <v>51</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>134</v>
+        <v>51</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>28</v>
@@ -4209,7 +4221,7 @@
         <v>30</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>42</v>
+        <v>136</v>
       </c>
       <c r="O45" s="2" t="s">
         <v>32</v>
@@ -4247,22 +4259,22 @@
         <v>22</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>95</v>
+        <v>138</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>133</v>
+        <v>26</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>134</v>
+        <v>27</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>134</v>
+        <v>27</v>
       </c>
       <c r="J46" s="2" t="s">
         <v>28</v>
@@ -4277,13 +4289,13 @@
         <v>30</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>42</v>
+        <v>139</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>32</v>
+        <v>140</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>32</v>
+        <v>141</v>
       </c>
       <c r="Q46" s="2" t="s">
         <v>32</v>
@@ -4315,22 +4327,22 @@
         <v>22</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>133</v>
+        <v>95</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>134</v>
+        <v>96</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>134</v>
+        <v>96</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>28</v>
@@ -4345,10 +4357,10 @@
         <v>30</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="P47" s="2" t="s">
         <v>32</v>
@@ -4383,22 +4395,22 @@
         <v>22</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>100</v>
+        <v>138</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="J48" s="2" t="s">
         <v>28</v>
@@ -4413,7 +4425,7 @@
         <v>30</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O48" s="2" t="s">
         <v>32</v>
@@ -4451,22 +4463,22 @@
         <v>22</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>65</v>
+        <v>138</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>38</v>
+        <v>129</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="J49" s="2" t="s">
         <v>28</v>
@@ -4481,10 +4493,10 @@
         <v>30</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="P49" s="2" t="s">
         <v>32</v>
@@ -4519,22 +4531,22 @@
         <v>22</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>75</v>
+        <v>138</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>151</v>
+        <v>64</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>152</v>
+        <v>65</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>153</v>
+        <v>65</v>
       </c>
       <c r="J50" s="2" t="s">
         <v>28</v>
@@ -4552,7 +4564,7 @@
         <v>32</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P50" s="2" t="s">
         <v>32</v>
@@ -4587,22 +4599,22 @@
         <v>22</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>40</v>
+        <v>138</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="J51" s="2" t="s">
         <v>28</v>
@@ -4617,10 +4629,10 @@
         <v>30</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="P51" s="2" t="s">
         <v>32</v>
@@ -4655,22 +4667,22 @@
         <v>22</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>43</v>
+        <v>138</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>155</v>
+        <v>49</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>156</v>
+        <v>50</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>157</v>
+        <v>51</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>157</v>
+        <v>51</v>
       </c>
       <c r="J52" s="2" t="s">
         <v>28</v>
@@ -4685,10 +4697,10 @@
         <v>30</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>48</v>
+        <v>136</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="P52" s="2" t="s">
         <v>32</v>
@@ -4723,22 +4735,22 @@
         <v>22</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>60</v>
+        <v>154</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>160</v>
+        <v>25</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>161</v>
+        <v>26</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>162</v>
+        <v>27</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>162</v>
+        <v>27</v>
       </c>
       <c r="J53" s="2" t="s">
         <v>28</v>
@@ -4753,13 +4765,13 @@
         <v>30</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>32</v>
+        <v>155</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>42</v>
+        <v>156</v>
       </c>
       <c r="P53" s="2" t="s">
-        <v>32</v>
+        <v>157</v>
       </c>
       <c r="Q53" s="2" t="s">
         <v>32</v>
@@ -4791,22 +4803,22 @@
         <v>22</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>65</v>
+        <v>154</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>160</v>
+        <v>72</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>161</v>
+        <v>95</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c r="J54" s="2" t="s">
         <v>28</v>
@@ -4821,10 +4833,10 @@
         <v>30</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P54" s="2" t="s">
         <v>32</v>
@@ -4859,22 +4871,22 @@
         <v>22</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>40</v>
+        <v>154</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>165</v>
+        <v>63</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>166</v>
+        <v>64</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>167</v>
+        <v>65</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>167</v>
+        <v>65</v>
       </c>
       <c r="J55" s="2" t="s">
         <v>28</v>
@@ -4889,10 +4901,10 @@
         <v>30</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="P55" s="2" t="s">
         <v>32</v>
@@ -4927,40 +4939,40 @@
         <v>22</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="E56" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N56" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O56" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="J56" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K56" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L56" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M56" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N56" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="O56" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="P56" s="2" t="s">
         <v>32</v>
@@ -4995,22 +5007,22 @@
         <v>22</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>56</v>
+        <v>154</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>165</v>
+        <v>44</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>166</v>
+        <v>45</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>167</v>
+        <v>46</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>167</v>
+        <v>46</v>
       </c>
       <c r="J57" s="2" t="s">
         <v>28</v>
@@ -5025,10 +5037,10 @@
         <v>30</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="O57" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="P57" s="2" t="s">
         <v>32</v>
@@ -5063,22 +5075,22 @@
         <v>22</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>60</v>
+        <v>154</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>165</v>
+        <v>116</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>166</v>
+        <v>117</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>167</v>
+        <v>118</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>167</v>
+        <v>119</v>
       </c>
       <c r="J58" s="2" t="s">
         <v>28</v>
@@ -5093,10 +5105,10 @@
         <v>30</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="O58" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="P58" s="2" t="s">
         <v>32</v>
@@ -5134,19 +5146,19 @@
         <v>38</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>65</v>
+        <v>154</v>
       </c>
       <c r="F59" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H59" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="G59" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>167</v>
-      </c>
       <c r="I59" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J59" s="2" t="s">
         <v>28</v>
@@ -5164,7 +5176,7 @@
         <v>32</v>
       </c>
       <c r="O59" s="2" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="P59" s="2" t="s">
         <v>32</v>
@@ -5199,22 +5211,22 @@
         <v>22</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>70</v>
+        <v>154</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>165</v>
+        <v>49</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>166</v>
+        <v>50</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>167</v>
+        <v>51</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>167</v>
+        <v>51</v>
       </c>
       <c r="J60" s="2" t="s">
         <v>28</v>
@@ -5229,10 +5241,10 @@
         <v>30</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>32</v>
+        <v>136</v>
       </c>
       <c r="O60" s="2" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="P60" s="2" t="s">
         <v>32</v>
@@ -5267,22 +5279,22 @@
         <v>22</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>75</v>
+        <v>154</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="J61" s="2" t="s">
         <v>28</v>
@@ -5297,10 +5309,10 @@
         <v>30</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="O61" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="P61" s="2" t="s">
         <v>32</v>
@@ -5335,40 +5347,40 @@
         <v>22</v>
       </c>
       <c r="D62" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N62" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="E62" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="J62" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K62" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L62" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M62" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N62" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="O62" s="2" t="s">
-        <v>32</v>
+        <v>174</v>
       </c>
       <c r="P62" s="2" t="s">
         <v>32</v>
@@ -5403,22 +5415,22 @@
         <v>22</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>85</v>
+        <v>172</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>165</v>
+        <v>56</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>166</v>
+        <v>57</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
       <c r="J63" s="2" t="s">
         <v>28</v>
@@ -5433,10 +5445,10 @@
         <v>30</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="O63" s="2" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="P63" s="2" t="s">
         <v>32</v>
@@ -5471,22 +5483,22 @@
         <v>22</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>89</v>
+        <v>172</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>165</v>
+        <v>72</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>166</v>
+        <v>95</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>167</v>
+        <v>96</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>167</v>
+        <v>96</v>
       </c>
       <c r="J64" s="2" t="s">
         <v>28</v>
@@ -5501,7 +5513,7 @@
         <v>30</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="O64" s="2" t="s">
         <v>32</v>
@@ -5539,13 +5551,13 @@
         <v>22</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>65</v>
+        <v>172</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>178</v>
@@ -5554,7 +5566,7 @@
         <v>179</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J65" s="2" t="s">
         <v>28</v>
@@ -5572,7 +5584,7 @@
         <v>32</v>
       </c>
       <c r="O65" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="P65" s="2" t="s">
         <v>32</v>
@@ -5607,22 +5619,22 @@
         <v>22</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>70</v>
+        <v>172</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>177</v>
+        <v>63</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>178</v>
+        <v>64</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>179</v>
+        <v>65</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>179</v>
+        <v>65</v>
       </c>
       <c r="J66" s="2" t="s">
         <v>28</v>
@@ -5640,7 +5652,7 @@
         <v>32</v>
       </c>
       <c r="O66" s="2" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="P66" s="2" t="s">
         <v>32</v>
@@ -5675,22 +5687,22 @@
         <v>22</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>43</v>
+        <v>172</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>182</v>
+        <v>116</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>183</v>
+        <v>117</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>184</v>
+        <v>118</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>184</v>
+        <v>119</v>
       </c>
       <c r="J67" s="2" t="s">
         <v>28</v>
@@ -5705,10 +5717,10 @@
         <v>30</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="O67" s="2" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="P67" s="2" t="s">
         <v>32</v>
@@ -5743,22 +5755,22 @@
         <v>22</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>40</v>
+        <v>172</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="J68" s="2" t="s">
         <v>28</v>
@@ -5773,10 +5785,10 @@
         <v>30</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="O68" s="2" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="P68" s="2" t="s">
         <v>32</v>
@@ -5811,22 +5823,22 @@
         <v>22</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>36</v>
+        <v>172</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>191</v>
+        <v>49</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>192</v>
+        <v>50</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>193</v>
+        <v>51</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>193</v>
+        <v>51</v>
       </c>
       <c r="J69" s="2" t="s">
         <v>28</v>
@@ -5841,13 +5853,13 @@
         <v>30</v>
       </c>
       <c r="N69" s="2" t="s">
-        <v>42</v>
+        <v>136</v>
       </c>
       <c r="O69" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="P69" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="Q69" s="2" t="s">
         <v>32</v>
@@ -5879,22 +5891,22 @@
         <v>22</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>40</v>
+        <v>172</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="J70" s="2" t="s">
         <v>28</v>
@@ -5909,10 +5921,10 @@
         <v>30</v>
       </c>
       <c r="N70" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="O70" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="P70" s="2" t="s">
         <v>32</v>
@@ -5947,22 +5959,22 @@
         <v>22</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>43</v>
+        <v>186</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>191</v>
+        <v>25</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>192</v>
+        <v>26</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>193</v>
+        <v>27</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>193</v>
+        <v>27</v>
       </c>
       <c r="J71" s="2" t="s">
         <v>28</v>
@@ -5977,7 +5989,7 @@
         <v>30</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>42</v>
+        <v>187</v>
       </c>
       <c r="O71" s="2" t="s">
         <v>32</v>
@@ -6015,22 +6027,22 @@
         <v>22</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>155</v>
+        <v>60</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>36</v>
+        <v>186</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>195</v>
+        <v>116</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>196</v>
+        <v>117</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>197</v>
+        <v>118</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>197</v>
+        <v>119</v>
       </c>
       <c r="J72" s="2" t="s">
         <v>28</v>
@@ -6045,7 +6057,7 @@
         <v>30</v>
       </c>
       <c r="N72" s="2" t="s">
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="O72" s="2" t="s">
         <v>32</v>
@@ -6060,7 +6072,7 @@
         <v>32</v>
       </c>
       <c r="S72" s="2" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="T72" s="2" t="s">
         <v>32</v>
@@ -6083,22 +6095,22 @@
         <v>22</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>40</v>
+        <v>189</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>195</v>
+        <v>25</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>196</v>
+        <v>26</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>197</v>
+        <v>27</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>197</v>
+        <v>27</v>
       </c>
       <c r="J73" s="2" t="s">
         <v>28</v>
@@ -6113,7 +6125,7 @@
         <v>30</v>
       </c>
       <c r="N73" s="2" t="s">
-        <v>116</v>
+        <v>190</v>
       </c>
       <c r="O73" s="2" t="s">
         <v>32</v>
@@ -6151,37 +6163,37 @@
         <v>22</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="E74" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M74" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N74" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="I74" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="J74" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K74" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L74" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M74" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N74" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="O74" s="2" t="s">
         <v>32</v>
@@ -6219,22 +6231,22 @@
         <v>22</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>49</v>
+        <v>189</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>195</v>
+        <v>116</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>196</v>
+        <v>117</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>197</v>
+        <v>118</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>197</v>
+        <v>119</v>
       </c>
       <c r="J75" s="2" t="s">
         <v>28</v>
@@ -6249,7 +6261,7 @@
         <v>30</v>
       </c>
       <c r="N75" s="2" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="O75" s="2" t="s">
         <v>32</v>
@@ -6264,7 +6276,7 @@
         <v>32</v>
       </c>
       <c r="S75" s="2" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="T75" s="2" t="s">
         <v>32</v>
@@ -6287,43 +6299,43 @@
         <v>22</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>70</v>
+        <v>194</v>
       </c>
       <c r="F76" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L76" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M76" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N76" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="G76" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="I76" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="J76" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K76" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L76" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M76" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N76" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="O76" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="P76" s="2" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="Q76" s="2" t="s">
         <v>32</v>
@@ -6355,22 +6367,22 @@
         <v>22</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>49</v>
+        <v>194</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>203</v>
+        <v>72</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>204</v>
+        <v>95</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>205</v>
+        <v>96</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>205</v>
+        <v>96</v>
       </c>
       <c r="J77" s="2" t="s">
         <v>28</v>
@@ -6385,13 +6397,13 @@
         <v>30</v>
       </c>
       <c r="N77" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="O77" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P77" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="Q77" s="2" t="s">
         <v>32</v>
@@ -6423,22 +6435,22 @@
         <v>22</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>56</v>
+        <v>194</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>203</v>
+        <v>63</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>204</v>
+        <v>64</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>205</v>
+        <v>65</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>205</v>
+        <v>65</v>
       </c>
       <c r="J78" s="2" t="s">
         <v>28</v>
@@ -6453,7 +6465,7 @@
         <v>30</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O78" s="2" t="s">
         <v>32</v>
@@ -6491,22 +6503,22 @@
         <v>22</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>60</v>
+        <v>199</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>203</v>
+        <v>25</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>204</v>
+        <v>26</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>205</v>
+        <v>27</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>205</v>
+        <v>27</v>
       </c>
       <c r="J79" s="2" t="s">
         <v>28</v>
@@ -6521,7 +6533,7 @@
         <v>30</v>
       </c>
       <c r="N79" s="2" t="s">
-        <v>42</v>
+        <v>200</v>
       </c>
       <c r="O79" s="2" t="s">
         <v>32</v>
@@ -6559,22 +6571,22 @@
         <v>22</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>70</v>
+        <v>199</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>209</v>
+        <v>72</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>210</v>
+        <v>95</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>211</v>
+        <v>96</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>211</v>
+        <v>96</v>
       </c>
       <c r="J80" s="2" t="s">
         <v>28</v>
@@ -6589,10 +6601,10 @@
         <v>30</v>
       </c>
       <c r="N80" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="O80" s="2" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="P80" s="2" t="s">
         <v>32</v>
@@ -6627,22 +6639,22 @@
         <v>22</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>75</v>
+        <v>199</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>209</v>
+        <v>63</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>210</v>
+        <v>64</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>211</v>
+        <v>65</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>211</v>
+        <v>65</v>
       </c>
       <c r="J81" s="2" t="s">
         <v>28</v>
@@ -6657,10 +6669,10 @@
         <v>30</v>
       </c>
       <c r="N81" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="O81" s="2" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="P81" s="2" t="s">
         <v>32</v>
@@ -6695,22 +6707,22 @@
         <v>22</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>36</v>
+        <v>204</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>214</v>
+        <v>25</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>215</v>
+        <v>26</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>216</v>
+        <v>27</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>216</v>
+        <v>27</v>
       </c>
       <c r="J82" s="2" t="s">
         <v>28</v>
@@ -6725,7 +6737,7 @@
         <v>30</v>
       </c>
       <c r="N82" s="2" t="s">
-        <v>42</v>
+        <v>205</v>
       </c>
       <c r="O82" s="2" t="s">
         <v>32</v>
@@ -6763,22 +6775,22 @@
         <v>22</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>40</v>
+        <v>204</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>214</v>
+        <v>72</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>215</v>
+        <v>95</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>216</v>
+        <v>96</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>216</v>
+        <v>96</v>
       </c>
       <c r="J83" s="2" t="s">
         <v>28</v>
@@ -6793,7 +6805,7 @@
         <v>30</v>
       </c>
       <c r="N83" s="2" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="O83" s="2" t="s">
         <v>32</v>
@@ -6831,22 +6843,22 @@
         <v>22</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>43</v>
+        <v>208</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>214</v>
+        <v>25</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>215</v>
+        <v>26</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>216</v>
+        <v>27</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>216</v>
+        <v>27</v>
       </c>
       <c r="J84" s="2" t="s">
         <v>28</v>
@@ -6861,7 +6873,7 @@
         <v>30</v>
       </c>
       <c r="N84" s="2" t="s">
-        <v>88</v>
+        <v>209</v>
       </c>
       <c r="O84" s="2" t="s">
         <v>32</v>
@@ -6899,22 +6911,22 @@
         <v>22</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>46</v>
+        <v>208</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>214</v>
+        <v>72</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>215</v>
+        <v>95</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>216</v>
+        <v>96</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>216</v>
+        <v>96</v>
       </c>
       <c r="J85" s="2" t="s">
         <v>28</v>
@@ -6929,13 +6941,13 @@
         <v>30</v>
       </c>
       <c r="N85" s="2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="O85" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P85" s="2" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="Q85" s="2" t="s">
         <v>32</v>
@@ -6967,22 +6979,22 @@
         <v>22</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>52</v>
+        <v>212</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>214</v>
+        <v>25</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>215</v>
+        <v>26</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>216</v>
+        <v>27</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>216</v>
+        <v>27</v>
       </c>
       <c r="J86" s="2" t="s">
         <v>28</v>
@@ -6997,7 +7009,7 @@
         <v>30</v>
       </c>
       <c r="N86" s="2" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="O86" s="2" t="s">
         <v>32</v>
@@ -7035,22 +7047,22 @@
         <v>22</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>56</v>
+        <v>212</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>214</v>
+        <v>72</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>215</v>
+        <v>95</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>216</v>
+        <v>96</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>216</v>
+        <v>96</v>
       </c>
       <c r="J87" s="2" t="s">
         <v>28</v>
@@ -7065,7 +7077,7 @@
         <v>30</v>
       </c>
       <c r="N87" s="2" t="s">
-        <v>223</v>
+        <v>43</v>
       </c>
       <c r="O87" s="2" t="s">
         <v>32</v>
@@ -7103,22 +7115,22 @@
         <v>22</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>60</v>
+        <v>216</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>214</v>
+        <v>25</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>215</v>
+        <v>26</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>216</v>
+        <v>27</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>216</v>
+        <v>27</v>
       </c>
       <c r="J88" s="2" t="s">
         <v>28</v>
@@ -7133,7 +7145,7 @@
         <v>30</v>
       </c>
       <c r="N88" s="2" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="O88" s="2" t="s">
         <v>32</v>
@@ -7171,22 +7183,22 @@
         <v>22</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>65</v>
+        <v>216</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>214</v>
+        <v>72</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>215</v>
+        <v>95</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>216</v>
+        <v>96</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>216</v>
+        <v>96</v>
       </c>
       <c r="J89" s="2" t="s">
         <v>28</v>
@@ -7201,10 +7213,10 @@
         <v>30</v>
       </c>
       <c r="N89" s="2" t="s">
-        <v>225</v>
+        <v>43</v>
       </c>
       <c r="O89" s="2" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="P89" s="2" t="s">
         <v>32</v>
@@ -7239,22 +7251,22 @@
         <v>22</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>70</v>
+        <v>220</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>214</v>
+        <v>25</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>215</v>
+        <v>26</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>216</v>
+        <v>27</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>216</v>
+        <v>27</v>
       </c>
       <c r="J90" s="2" t="s">
         <v>28</v>
@@ -7269,10 +7281,10 @@
         <v>30</v>
       </c>
       <c r="N90" s="2" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="O90" s="2" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="P90" s="2" t="s">
         <v>32</v>
@@ -7307,22 +7319,22 @@
         <v>22</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>75</v>
+        <v>220</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>214</v>
+        <v>116</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>215</v>
+        <v>117</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>216</v>
+        <v>118</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>216</v>
+        <v>119</v>
       </c>
       <c r="J91" s="2" t="s">
         <v>28</v>
@@ -7337,13 +7349,13 @@
         <v>30</v>
       </c>
       <c r="N91" s="2" t="s">
-        <v>225</v>
+        <v>32</v>
       </c>
       <c r="O91" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="P91" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="Q91" s="2" t="s">
         <v>32</v>
@@ -7352,7 +7364,7 @@
         <v>32</v>
       </c>
       <c r="S91" s="2" t="s">
-        <v>32</v>
+        <v>223</v>
       </c>
       <c r="T91" s="2" t="s">
         <v>32</v>
@@ -7375,22 +7387,22 @@
         <v>22</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>70</v>
+        <v>224</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>229</v>
+        <v>25</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>230</v>
+        <v>26</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>231</v>
+        <v>27</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>231</v>
+        <v>27</v>
       </c>
       <c r="J92" s="2" t="s">
         <v>28</v>
@@ -7405,10 +7417,10 @@
         <v>30</v>
       </c>
       <c r="N92" s="2" t="s">
-        <v>42</v>
+        <v>225</v>
       </c>
       <c r="O92" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="P92" s="2" t="s">
         <v>32</v>
@@ -7443,22 +7455,22 @@
         <v>22</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>165</v>
+        <v>63</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>75</v>
+        <v>224</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>229</v>
+        <v>116</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>230</v>
+        <v>117</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>231</v>
+        <v>118</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>231</v>
+        <v>119</v>
       </c>
       <c r="J93" s="2" t="s">
         <v>28</v>
@@ -7476,7 +7488,7 @@
         <v>32</v>
       </c>
       <c r="O93" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="P93" s="2" t="s">
         <v>32</v>
@@ -7488,7 +7500,7 @@
         <v>32</v>
       </c>
       <c r="S93" s="2" t="s">
-        <v>32</v>
+        <v>223</v>
       </c>
       <c r="T93" s="2" t="s">
         <v>32</v>
@@ -7511,22 +7523,22 @@
         <v>22</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>63</v>
+        <v>126</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>56</v>
+        <v>226</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>232</v>
+        <v>25</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>233</v>
+        <v>26</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>234</v>
+        <v>27</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>235</v>
+        <v>27</v>
       </c>
       <c r="J94" s="2" t="s">
         <v>28</v>
@@ -7541,10 +7553,10 @@
         <v>30</v>
       </c>
       <c r="N94" s="2" t="s">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="O94" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="P94" s="2" t="s">
         <v>32</v>
@@ -7579,22 +7591,22 @@
         <v>22</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>60</v>
+        <v>226</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>232</v>
+        <v>116</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>233</v>
+        <v>117</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>234</v>
+        <v>118</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>235</v>
+        <v>119</v>
       </c>
       <c r="J95" s="2" t="s">
         <v>28</v>
@@ -7612,7 +7624,7 @@
         <v>32</v>
       </c>
       <c r="O95" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="P95" s="2" t="s">
         <v>32</v>
@@ -7624,7 +7636,7 @@
         <v>32</v>
       </c>
       <c r="S95" s="2" t="s">
-        <v>32</v>
+        <v>228</v>
       </c>
       <c r="T95" s="2" t="s">
         <v>32</v>
@@ -7647,22 +7659,22 @@
         <v>22</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>70</v>
+        <v>230</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>232</v>
+        <v>25</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>233</v>
+        <v>26</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>234</v>
+        <v>27</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>235</v>
+        <v>27</v>
       </c>
       <c r="J96" s="2" t="s">
         <v>28</v>
@@ -7677,10 +7689,10 @@
         <v>30</v>
       </c>
       <c r="N96" s="2" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="O96" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="P96" s="2" t="s">
         <v>32</v>
@@ -7715,52 +7727,52 @@
         <v>22</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>75</v>
+        <v>230</v>
       </c>
       <c r="F97" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J97" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K97" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L97" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M97" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N97" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O97" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P97" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q97" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R97" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S97" s="2" t="s">
         <v>232</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="H97" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="I97" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="J97" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K97" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L97" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M97" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N97" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O97" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="P97" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q97" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R97" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S97" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="T97" s="2" t="s">
         <v>32</v>
@@ -7783,22 +7795,22 @@
         <v>22</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>79</v>
+        <v>234</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>232</v>
+        <v>25</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>233</v>
+        <v>26</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>234</v>
+        <v>27</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>235</v>
+        <v>27</v>
       </c>
       <c r="J98" s="2" t="s">
         <v>28</v>
@@ -7813,7 +7825,7 @@
         <v>30</v>
       </c>
       <c r="N98" s="2" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="O98" s="2" t="s">
         <v>32</v>
@@ -7828,7 +7840,7 @@
         <v>32</v>
       </c>
       <c r="S98" s="2" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="T98" s="2" t="s">
         <v>32</v>
@@ -7851,22 +7863,22 @@
         <v>22</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>82</v>
+        <v>234</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>232</v>
+        <v>116</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>233</v>
+        <v>117</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>234</v>
+        <v>118</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>235</v>
+        <v>119</v>
       </c>
       <c r="J99" s="2" t="s">
         <v>28</v>
@@ -7896,7 +7908,7 @@
         <v>32</v>
       </c>
       <c r="S99" s="2" t="s">
-        <v>45</v>
+        <v>236</v>
       </c>
       <c r="T99" s="2" t="s">
         <v>32</v>
@@ -7919,22 +7931,22 @@
         <v>22</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>103</v>
+        <v>238</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>232</v>
+        <v>25</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>233</v>
+        <v>26</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>234</v>
+        <v>27</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>235</v>
+        <v>27</v>
       </c>
       <c r="J100" s="2" t="s">
         <v>28</v>
@@ -7949,7 +7961,7 @@
         <v>30</v>
       </c>
       <c r="N100" s="2" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="O100" s="2" t="s">
         <v>32</v>
@@ -7964,7 +7976,7 @@
         <v>32</v>
       </c>
       <c r="S100" s="2" t="s">
-        <v>242</v>
+        <v>32</v>
       </c>
       <c r="T100" s="2" t="s">
         <v>32</v>
@@ -7987,22 +7999,22 @@
         <v>22</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>106</v>
+        <v>238</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>232</v>
+        <v>116</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>233</v>
+        <v>117</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>234</v>
+        <v>118</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>235</v>
+        <v>119</v>
       </c>
       <c r="J101" s="2" t="s">
         <v>28</v>
@@ -8032,7 +8044,7 @@
         <v>32</v>
       </c>
       <c r="S101" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="T101" s="2" t="s">
         <v>32</v>
@@ -8055,22 +8067,22 @@
         <v>22</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>109</v>
+        <v>241</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>232</v>
+        <v>25</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>233</v>
+        <v>26</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>234</v>
+        <v>27</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>235</v>
+        <v>27</v>
       </c>
       <c r="J102" s="2" t="s">
         <v>28</v>
@@ -8085,7 +8097,7 @@
         <v>30</v>
       </c>
       <c r="N102" s="2" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="O102" s="2" t="s">
         <v>32</v>
@@ -8100,7 +8112,7 @@
         <v>32</v>
       </c>
       <c r="S102" s="2" t="s">
-        <v>244</v>
+        <v>32</v>
       </c>
       <c r="T102" s="2" t="s">
         <v>32</v>
@@ -8123,22 +8135,22 @@
         <v>22</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>182</v>
+        <v>81</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>112</v>
+        <v>241</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>232</v>
+        <v>116</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>233</v>
+        <v>117</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>234</v>
+        <v>118</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>235</v>
+        <v>119</v>
       </c>
       <c r="J103" s="2" t="s">
         <v>28</v>
@@ -8168,7 +8180,7 @@
         <v>32</v>
       </c>
       <c r="S103" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="T103" s="2" t="s">
         <v>32</v>
@@ -8191,22 +8203,22 @@
         <v>22</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>186</v>
+        <v>67</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>113</v>
+        <v>243</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>232</v>
+        <v>25</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>233</v>
+        <v>26</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>234</v>
+        <v>27</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>235</v>
+        <v>27</v>
       </c>
       <c r="J104" s="2" t="s">
         <v>28</v>
@@ -8221,7 +8233,7 @@
         <v>30</v>
       </c>
       <c r="N104" s="2" t="s">
-        <v>32</v>
+        <v>244</v>
       </c>
       <c r="O104" s="2" t="s">
         <v>32</v>
@@ -8236,7 +8248,7 @@
         <v>32</v>
       </c>
       <c r="S104" s="2" t="s">
-        <v>246</v>
+        <v>32</v>
       </c>
       <c r="T104" s="2" t="s">
         <v>32</v>
@@ -8259,22 +8271,22 @@
         <v>22</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>115</v>
+        <v>243</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>232</v>
+        <v>116</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>233</v>
+        <v>117</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>234</v>
+        <v>118</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>235</v>
+        <v>119</v>
       </c>
       <c r="J105" s="2" t="s">
         <v>28</v>
@@ -8304,7 +8316,7 @@
         <v>32</v>
       </c>
       <c r="S105" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="T105" s="2" t="s">
         <v>32</v>
@@ -8327,38 +8339,38 @@
         <v>22</v>
       </c>
       <c r="D106" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J106" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K106" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L106" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M106" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N106" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="E106" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="G106" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="H106" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="I106" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="J106" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K106" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L106" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M106" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N106" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="O106" s="2" t="s">
         <v>32</v>
       </c>
@@ -8372,7 +8384,7 @@
         <v>32</v>
       </c>
       <c r="S106" s="2" t="s">
-        <v>250</v>
+        <v>32</v>
       </c>
       <c r="T106" s="2" t="s">
         <v>32</v>
@@ -8395,23 +8407,23 @@
         <v>22</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>107</v>
+        <v>225</v>
       </c>
       <c r="E107" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I107" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="F107" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="G107" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="H107" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="I107" s="1" t="s">
-        <v>235</v>
-      </c>
       <c r="J107" s="2" t="s">
         <v>28</v>
       </c>
@@ -8440,7 +8452,7 @@
         <v>32</v>
       </c>
       <c r="S107" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="T107" s="2" t="s">
         <v>32</v>
@@ -8463,22 +8475,22 @@
         <v>22</v>
       </c>
       <c r="D108" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="E108" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="F108" s="2" t="s">
-        <v>232</v>
+        <v>25</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>233</v>
+        <v>26</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>234</v>
+        <v>27</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>235</v>
+        <v>27</v>
       </c>
       <c r="J108" s="2" t="s">
         <v>28</v>
@@ -8493,7 +8505,7 @@
         <v>30</v>
       </c>
       <c r="N108" s="2" t="s">
-        <v>32</v>
+        <v>253</v>
       </c>
       <c r="O108" s="2" t="s">
         <v>32</v>
@@ -8508,7 +8520,7 @@
         <v>32</v>
       </c>
       <c r="S108" s="2" t="s">
-        <v>253</v>
+        <v>32</v>
       </c>
       <c r="T108" s="2" t="s">
         <v>32</v>
@@ -8534,19 +8546,19 @@
         <v>254</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>125</v>
+        <v>252</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>232</v>
+        <v>116</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>233</v>
+        <v>117</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>234</v>
+        <v>118</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>235</v>
+        <v>119</v>
       </c>
       <c r="J109" s="2" t="s">
         <v>28</v>
@@ -8585,6 +8597,142 @@
         <v>33</v>
       </c>
       <c r="V109" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J110" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K110" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L110" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M110" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N110" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="O110" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P110" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q110" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R110" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S110" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T110" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U110" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V110" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J111" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K111" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L111" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M111" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N111" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O111" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P111" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q111" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R111" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S111" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="T111" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U111" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V111" s="2" t="s">
         <v>32</v>
       </c>
     </row>

--- a/Excel-XLSX/UN-UZB.xlsx
+++ b/Excel-XLSX/UN-UZB.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="261">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>cALvB0</t>
+    <t>o7PpJ1</t>
   </si>
   <si>
     <t>1993</t>
@@ -792,10 +792,13 @@
     <t>2024</t>
   </si>
   <si>
-    <t>8955</t>
+    <t>8505</t>
   </si>
   <si>
     <t>110</t>
+  </si>
+  <si>
+    <t>20000</t>
   </si>
 </sst>
 </file>
@@ -8724,7 +8727,7 @@
         <v>32</v>
       </c>
       <c r="S111" s="2" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="T111" s="2" t="s">
         <v>32</v>
